--- a/capiq_data/in_process_data/IQ169838.xlsx
+++ b/capiq_data/in_process_data/IQ169838.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2C8B71-C89C-4B59-BD94-3B559BA11D86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08075F8-8CAA-48E4-BC03-186410262A7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"6bb790f8-62d4-46ca-aca6-48c9562b9984"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"bf910a59-ec67-4e48-be89-b65e2747f674"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>689</v>
+        <v>257.11900000000003</v>
       </c>
       <c r="D2">
-        <v>3424</v>
+        <v>750.96699999999998</v>
       </c>
       <c r="E2">
-        <v>2134</v>
+        <v>506.72300000000001</v>
       </c>
       <c r="F2">
-        <v>2782</v>
+        <v>664.10500000000002</v>
       </c>
       <c r="G2">
-        <v>3480</v>
+        <v>630.02</v>
       </c>
       <c r="H2">
-        <v>43425</v>
+        <v>7481.95</v>
       </c>
       <c r="I2">
-        <v>779</v>
+        <v>259.12</v>
       </c>
       <c r="J2">
-        <v>8095</v>
+        <v>2193.2579999999998</v>
       </c>
       <c r="K2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3524</v>
+        <v>553.34699999999998</v>
       </c>
       <c r="O2">
-        <v>19048</v>
+        <v>3727.31</v>
       </c>
       <c r="P2">
-        <v>8141</v>
+        <v>2218.2579999999998</v>
       </c>
       <c r="Q2">
-        <v>-1077</v>
+        <v>9.8919999999999995</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4449</v>
+        <v>1546</v>
       </c>
       <c r="T2">
-        <v>24377</v>
+        <v>3754.64</v>
       </c>
       <c r="U2">
-        <v>134</v>
+        <v>37.173000000000002</v>
       </c>
       <c r="V2">
-        <v>1926</v>
+        <v>556.24699999999996</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-22.204000000000001</v>
       </c>
       <c r="X2">
-        <v>-56</v>
+        <v>239.83199999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>689</v>
+        <v>257.11900000000003</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>1134</v>
+        <v>282.20100000000002</v>
       </c>
       <c r="D3">
-        <v>3878</v>
+        <v>801.59799999999996</v>
       </c>
       <c r="E3">
-        <v>2490</v>
+        <v>553.66600000000005</v>
       </c>
       <c r="F3">
-        <v>3226</v>
+        <v>711.49099999999999</v>
       </c>
       <c r="G3">
-        <v>4001</v>
+        <v>816.58699999999999</v>
       </c>
       <c r="H3">
-        <v>44866</v>
+        <v>8856.2939999999999</v>
       </c>
       <c r="I3">
-        <v>906</v>
+        <v>377.51799999999997</v>
       </c>
       <c r="J3">
-        <v>8130</v>
+        <v>2718.3409999999999</v>
       </c>
       <c r="K3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-645.79999999999995</v>
       </c>
       <c r="N3">
-        <v>3957</v>
+        <v>904.43600000000004</v>
       </c>
       <c r="O3">
-        <v>19668</v>
+        <v>4823.5290000000005</v>
       </c>
       <c r="P3">
-        <v>8160</v>
+        <v>2748.6170000000002</v>
       </c>
       <c r="Q3">
-        <v>222</v>
+        <v>69.662000000000006</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>25198</v>
+        <v>4032.7649999999999</v>
       </c>
       <c r="U3">
-        <v>356</v>
+        <v>106.83499999999999</v>
       </c>
       <c r="V3">
-        <v>1979</v>
+        <v>642.54499999999996</v>
       </c>
       <c r="W3">
-        <v>-76</v>
+        <v>-4.87</v>
       </c>
       <c r="X3">
-        <v>-8</v>
+        <v>529.44600000000003</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>1134</v>
+        <v>282.20100000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>1259</v>
+        <v>205.745</v>
       </c>
       <c r="D4">
-        <v>4281</v>
+        <v>812.65499999999997</v>
       </c>
       <c r="E4">
-        <v>2495</v>
+        <v>569.82100000000003</v>
       </c>
       <c r="F4">
-        <v>3603</v>
+        <v>694.625</v>
       </c>
       <c r="G4">
-        <v>4900</v>
+        <v>838.00800000000004</v>
       </c>
       <c r="H4">
-        <v>46529</v>
+        <v>8965.393</v>
       </c>
       <c r="I4">
-        <v>1029</v>
+        <v>307.54300000000001</v>
       </c>
       <c r="J4">
-        <v>7404</v>
+        <v>2574.9259999999999</v>
       </c>
       <c r="K4">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4484</v>
+        <v>813.49</v>
       </c>
       <c r="O4">
-        <v>19862</v>
+        <v>4625.0529999999999</v>
       </c>
       <c r="P4">
-        <v>7852</v>
+        <v>2637.9259999999999</v>
       </c>
       <c r="Q4">
-        <v>751</v>
+        <v>22.488</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>26667</v>
+        <v>4340.34</v>
       </c>
       <c r="U4">
-        <v>1107</v>
+        <v>129.32300000000001</v>
       </c>
       <c r="V4">
-        <v>2745</v>
+        <v>447.53399999999999</v>
       </c>
       <c r="W4">
-        <v>-77</v>
+        <v>-4.9080000000000004</v>
       </c>
       <c r="X4">
-        <v>-366</v>
+        <v>-129.61799999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>1259</v>
+        <v>205.745</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>1002</v>
+        <v>156.833</v>
       </c>
       <c r="D5">
-        <v>4274</v>
+        <v>666.48800000000006</v>
       </c>
       <c r="E5">
-        <v>2560</v>
+        <v>436.60500000000002</v>
       </c>
       <c r="F5">
-        <v>3595</v>
+        <v>555.69399999999996</v>
       </c>
       <c r="G5">
-        <v>4576</v>
+        <v>704.67899999999997</v>
       </c>
       <c r="H5">
-        <v>47482</v>
+        <v>9066.7350000000006</v>
       </c>
       <c r="I5">
-        <v>852</v>
+        <v>289.84300000000002</v>
       </c>
       <c r="J5">
-        <v>6785</v>
+        <v>2311.5120000000002</v>
       </c>
       <c r="K5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4024</v>
+        <v>616.46500000000003</v>
       </c>
       <c r="O5">
-        <v>19579</v>
+        <v>4227.8680000000004</v>
       </c>
       <c r="P5">
-        <v>7202</v>
+        <v>2311.5120000000002</v>
       </c>
       <c r="Q5">
-        <v>-521</v>
+        <v>-61.472000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>27903</v>
+        <v>4838.8670000000002</v>
       </c>
       <c r="U5">
-        <v>586</v>
+        <v>67.850999999999999</v>
       </c>
       <c r="V5">
-        <v>2447</v>
+        <v>437.88499999999999</v>
       </c>
       <c r="W5">
-        <v>-77</v>
+        <v>-4.9080000000000004</v>
       </c>
       <c r="X5">
-        <v>-719</v>
+        <v>82.147000000000006</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-116.73699999999999</v>
       </c>
       <c r="AA5">
-        <v>1002</v>
+        <v>156.833</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>1189</v>
+        <v>78.62</v>
       </c>
       <c r="D6">
-        <v>4240</v>
+        <v>542.21799999999996</v>
       </c>
       <c r="E6">
-        <v>3079</v>
+        <v>404.79300000000001</v>
       </c>
       <c r="F6">
-        <v>3559</v>
+        <v>421.75099999999998</v>
       </c>
       <c r="G6">
-        <v>4803</v>
+        <v>697.74900000000002</v>
       </c>
       <c r="H6">
-        <v>52051</v>
+        <v>8933.6560000000009</v>
       </c>
       <c r="I6">
-        <v>1048</v>
+        <v>179.77799999999999</v>
       </c>
       <c r="J6">
-        <v>6785</v>
+        <v>2244.357</v>
       </c>
       <c r="K6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4963</v>
+        <v>522.45799999999997</v>
       </c>
       <c r="O6">
-        <v>23058</v>
+        <v>4074.49</v>
       </c>
       <c r="P6">
-        <v>7216</v>
+        <v>2244.357</v>
       </c>
       <c r="Q6">
-        <v>-291</v>
+        <v>-32.225999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>5299</v>
+        <v>1915</v>
       </c>
       <c r="T6">
-        <v>28993</v>
+        <v>4859.1660000000002</v>
       </c>
       <c r="U6">
-        <v>295</v>
+        <v>35.625</v>
       </c>
       <c r="V6">
-        <v>2782</v>
+        <v>377.036</v>
       </c>
       <c r="W6">
-        <v>-76</v>
+        <v>-39.805999999999997</v>
       </c>
       <c r="X6">
-        <v>-54</v>
+        <v>-104.18600000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>12.874000000000001</v>
       </c>
       <c r="AA6">
-        <v>1189</v>
+        <v>78.62</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>797</v>
+        <v>80.671999999999997</v>
       </c>
       <c r="D7">
-        <v>4481</v>
+        <v>527.99599999999998</v>
       </c>
       <c r="E7">
-        <v>3163</v>
+        <v>433.726</v>
       </c>
       <c r="F7">
-        <v>3786</v>
+        <v>408.62</v>
       </c>
       <c r="G7">
-        <v>4954</v>
+        <v>725.53</v>
       </c>
       <c r="H7">
-        <v>53237</v>
+        <v>8964.3250000000007</v>
       </c>
       <c r="I7">
-        <v>1059</v>
+        <v>192.53700000000001</v>
       </c>
       <c r="J7">
-        <v>7444</v>
+        <v>2277.9650000000001</v>
       </c>
       <c r="K7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-344.33100000000002</v>
       </c>
       <c r="N7">
-        <v>4698</v>
+        <v>463.64800000000002</v>
       </c>
       <c r="O7">
-        <v>23522</v>
+        <v>4035.6680000000001</v>
       </c>
       <c r="P7">
-        <v>7873</v>
+        <v>2277.9650000000001</v>
       </c>
       <c r="Q7">
-        <v>-50</v>
+        <v>-2.1030000000000002</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>29715</v>
+        <v>4928.6570000000002</v>
       </c>
       <c r="U7">
-        <v>245</v>
+        <v>33.521999999999998</v>
       </c>
       <c r="V7">
-        <v>2007</v>
+        <v>205.26499999999999</v>
       </c>
       <c r="W7">
-        <v>-77</v>
+        <v>-18.256</v>
       </c>
       <c r="X7">
-        <v>585</v>
+        <v>23.867999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-439</v>
+        <v>17.006</v>
       </c>
       <c r="AA7">
-        <v>797</v>
+        <v>80.671999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>356</v>
+        <v>146.31</v>
       </c>
       <c r="D8">
-        <v>3921</v>
+        <v>653.65700000000004</v>
       </c>
       <c r="E8">
-        <v>2625</v>
+        <v>429.83499999999998</v>
       </c>
       <c r="F8">
-        <v>3196</v>
+        <v>530.45799999999997</v>
       </c>
       <c r="G8">
-        <v>4639</v>
+        <v>820.43200000000002</v>
       </c>
       <c r="H8">
-        <v>57217</v>
+        <v>9165.9480000000003</v>
       </c>
       <c r="I8">
-        <v>1061</v>
+        <v>224.61600000000001</v>
       </c>
       <c r="J8">
-        <v>9670</v>
+        <v>2205.2460000000001</v>
       </c>
       <c r="K8">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>5121</v>
+        <v>472.33800000000002</v>
       </c>
       <c r="O8">
-        <v>26544</v>
+        <v>4028.1770000000001</v>
       </c>
       <c r="P8">
-        <v>10238</v>
+        <v>2205.2460000000001</v>
       </c>
       <c r="Q8">
-        <v>116</v>
+        <v>98.456999999999994</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>30673</v>
+        <v>5137.7709999999997</v>
       </c>
       <c r="U8">
-        <v>361</v>
+        <v>131.97900000000001</v>
       </c>
       <c r="V8">
-        <v>2792</v>
+        <v>418.82</v>
       </c>
       <c r="W8">
-        <v>-84</v>
+        <v>-19.001000000000001</v>
       </c>
       <c r="X8">
-        <v>2268</v>
+        <v>-89.465999999999994</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>356</v>
+        <v>146.31</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>180</v>
+        <v>146.52799999999999</v>
       </c>
       <c r="D9">
-        <v>4123</v>
+        <v>655.91700000000003</v>
       </c>
       <c r="E9">
-        <v>2976</v>
+        <v>477.79599999999999</v>
       </c>
       <c r="F9">
-        <v>3292</v>
+        <v>529.73400000000004</v>
       </c>
       <c r="G9">
-        <v>5044</v>
+        <v>906.40800000000002</v>
       </c>
       <c r="H9">
-        <v>58810</v>
+        <v>9248.7090000000007</v>
       </c>
       <c r="I9">
-        <v>1137</v>
+        <v>241.47900000000001</v>
       </c>
       <c r="J9">
-        <v>10670</v>
+        <v>2163.1819999999998</v>
       </c>
       <c r="K9">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5390</v>
+        <v>537.20000000000005</v>
       </c>
       <c r="O9">
-        <v>28096</v>
+        <v>4051.134</v>
       </c>
       <c r="P9">
-        <v>11634</v>
+        <v>2163.1819999999998</v>
       </c>
       <c r="Q9">
-        <v>-43</v>
+        <v>35.491999999999997</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>30714</v>
+        <v>5197.5749999999998</v>
       </c>
       <c r="U9">
-        <v>318</v>
+        <v>167.471</v>
       </c>
       <c r="V9">
-        <v>1623</v>
+        <v>385.18400000000003</v>
       </c>
       <c r="W9">
-        <v>-85</v>
+        <v>-15.802</v>
       </c>
       <c r="X9">
-        <v>1308</v>
+        <v>-46.109000000000002</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>180</v>
+        <v>146.52799999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>668</v>
+        <v>180.81899999999999</v>
       </c>
       <c r="D10">
-        <v>4388</v>
+        <v>722.178</v>
       </c>
       <c r="E10">
-        <v>3086</v>
+        <v>527.68700000000001</v>
       </c>
       <c r="F10">
-        <v>3588</v>
+        <v>594.46600000000001</v>
       </c>
       <c r="G10">
-        <v>4962</v>
+        <v>766.78099999999995</v>
       </c>
       <c r="H10">
-        <v>60737</v>
+        <v>9459.8510000000006</v>
       </c>
       <c r="I10">
-        <v>1092</v>
+        <v>214.28800000000001</v>
       </c>
       <c r="J10">
-        <v>11355</v>
+        <v>2158.8150000000001</v>
       </c>
       <c r="K10">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5536</v>
+        <v>532.23500000000001</v>
       </c>
       <c r="O10">
-        <v>29406</v>
+        <v>4098.9449999999997</v>
       </c>
       <c r="P10">
-        <v>12345</v>
+        <v>2158.8150000000001</v>
       </c>
       <c r="Q10">
-        <v>-158</v>
+        <v>-115.58499999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>5976</v>
+        <v>1958</v>
       </c>
       <c r="T10">
-        <v>31331</v>
+        <v>5360.9059999999999</v>
       </c>
       <c r="U10">
-        <v>160</v>
+        <v>51.886000000000003</v>
       </c>
       <c r="V10">
-        <v>2082</v>
+        <v>371.44900000000001</v>
       </c>
       <c r="W10">
-        <v>-86</v>
+        <v>-15.82</v>
       </c>
       <c r="X10">
-        <v>624</v>
+        <v>-16.742999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>84.716999999999999</v>
       </c>
       <c r="AA10">
-        <v>668</v>
+        <v>180.81899999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>717</v>
+        <v>338.92899999999997</v>
       </c>
       <c r="D11">
-        <v>3994</v>
+        <v>975.16200000000003</v>
       </c>
       <c r="E11">
-        <v>3106</v>
+        <v>761.34199999999998</v>
       </c>
       <c r="F11">
-        <v>3251</v>
+        <v>829.16600000000005</v>
       </c>
       <c r="G11">
-        <v>4848</v>
+        <v>998.16600000000005</v>
       </c>
       <c r="H11">
-        <v>61792</v>
+        <v>10872.281999999999</v>
       </c>
       <c r="I11">
-        <v>1226</v>
+        <v>315.45299999999997</v>
       </c>
       <c r="J11">
-        <v>11485</v>
+        <v>1943.364</v>
       </c>
       <c r="K11">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-280.3</v>
       </c>
       <c r="N11">
-        <v>5562</v>
+        <v>728.60500000000002</v>
       </c>
       <c r="O11">
-        <v>29805</v>
+        <v>4632.0940000000001</v>
       </c>
       <c r="P11">
-        <v>12479</v>
+        <v>1943.364</v>
       </c>
       <c r="Q11">
-        <v>88</v>
+        <v>-11.928000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>31987</v>
+        <v>6240.1880000000001</v>
       </c>
       <c r="U11">
-        <v>248</v>
+        <v>39.957999999999998</v>
       </c>
       <c r="V11">
-        <v>2621</v>
+        <v>538.04100000000005</v>
       </c>
       <c r="W11">
-        <v>-86</v>
+        <v>-16.786999999999999</v>
       </c>
       <c r="X11">
-        <v>59</v>
+        <v>334.05</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>717</v>
+        <v>338.92899999999997</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>1035</v>
+        <v>244.381</v>
       </c>
       <c r="D12">
-        <v>3915</v>
+        <v>1044.33</v>
       </c>
       <c r="E12">
-        <v>2914</v>
+        <v>698.11500000000001</v>
       </c>
       <c r="F12">
-        <v>3119</v>
+        <v>842.91300000000001</v>
       </c>
       <c r="G12">
-        <v>4758</v>
+        <v>952.45799999999997</v>
       </c>
       <c r="H12">
-        <v>63350</v>
+        <v>11896.035</v>
       </c>
       <c r="I12">
-        <v>1346</v>
+        <v>271.21600000000001</v>
       </c>
       <c r="J12">
-        <v>12297</v>
+        <v>2349.502</v>
       </c>
       <c r="K12">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5158</v>
+        <v>742.86900000000003</v>
       </c>
       <c r="O12">
-        <v>30629</v>
+        <v>5458.8959999999997</v>
       </c>
       <c r="P12">
-        <v>12775</v>
+        <v>2349.502</v>
       </c>
       <c r="Q12">
-        <v>-64</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>32721</v>
+        <v>6437.1390000000001</v>
       </c>
       <c r="U12">
-        <v>184</v>
+        <v>40.999000000000002</v>
       </c>
       <c r="V12">
-        <v>2759</v>
+        <v>686.12400000000002</v>
       </c>
       <c r="W12">
-        <v>-97</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-51</v>
+        <v>391.42</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1035</v>
+        <v>244.381</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>306</v>
+        <v>276.96100000000001</v>
       </c>
       <c r="D13">
-        <v>4217</v>
+        <v>1110.0150000000001</v>
       </c>
       <c r="E13">
-        <v>3086</v>
+        <v>619.50800000000004</v>
       </c>
       <c r="F13">
-        <v>3435</v>
+        <v>898.49300000000005</v>
       </c>
       <c r="G13">
-        <v>6016</v>
+        <v>869.33900000000006</v>
       </c>
       <c r="H13">
-        <v>60239</v>
+        <v>12240.045</v>
       </c>
       <c r="I13">
-        <v>1345</v>
+        <v>284.94099999999997</v>
       </c>
       <c r="J13">
-        <v>10868</v>
+        <v>2514.1179999999999</v>
       </c>
       <c r="K13">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4523</v>
+        <v>829.30399999999997</v>
       </c>
       <c r="O13">
-        <v>27258</v>
+        <v>5942.96</v>
       </c>
       <c r="P13">
-        <v>10925</v>
+        <v>2514.1179999999999</v>
       </c>
       <c r="Q13">
-        <v>1067</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>32981</v>
+        <v>6297.085</v>
       </c>
       <c r="U13">
-        <v>1251</v>
+        <v>42.637</v>
       </c>
       <c r="V13">
-        <v>1978</v>
+        <v>854.94399999999996</v>
       </c>
       <c r="W13">
-        <v>-97</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-1941</v>
+        <v>-291.60399999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>306</v>
+        <v>276.96100000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>174</v>
+        <v>261.61399999999998</v>
       </c>
       <c r="D14">
-        <v>3536</v>
+        <v>1069.413</v>
       </c>
       <c r="E14">
-        <v>2952</v>
+        <v>639.05499999999995</v>
       </c>
       <c r="F14">
-        <v>2954</v>
+        <v>868.22500000000002</v>
       </c>
       <c r="G14">
-        <v>6366</v>
+        <v>899.072</v>
       </c>
       <c r="H14">
-        <v>61637</v>
+        <v>12416.126</v>
       </c>
       <c r="I14">
-        <v>1616</v>
+        <v>300.59800000000001</v>
       </c>
       <c r="J14">
-        <v>9672</v>
+        <v>2326.9659999999999</v>
       </c>
       <c r="K14">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4700</v>
+        <v>820.37800000000004</v>
       </c>
       <c r="O14">
-        <v>26244</v>
+        <v>5883.3280000000004</v>
       </c>
       <c r="P14">
-        <v>9725</v>
+        <v>2326.9659999999999</v>
       </c>
       <c r="Q14">
-        <v>655</v>
+        <v>-9.1340000000000003</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>5342</v>
+        <v>2353</v>
       </c>
       <c r="T14">
-        <v>35393</v>
+        <v>6532.7979999999998</v>
       </c>
       <c r="U14">
-        <v>1906</v>
+        <v>33.503</v>
       </c>
       <c r="V14">
-        <v>2477</v>
+        <v>626.79100000000005</v>
       </c>
       <c r="W14">
-        <v>-80</v>
+        <v>-20.864999999999998</v>
       </c>
       <c r="X14">
-        <v>960</v>
+        <v>-199.392</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>174</v>
+        <v>261.61399999999998</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>236</v>
+        <v>346.32499999999999</v>
       </c>
       <c r="D15">
-        <v>3318</v>
+        <v>1149.9390000000001</v>
       </c>
       <c r="E15">
-        <v>2479</v>
+        <v>704.45399999999995</v>
       </c>
       <c r="F15">
-        <v>2773</v>
+        <v>922.06899999999996</v>
       </c>
       <c r="G15">
-        <v>5463</v>
+        <v>987.85</v>
       </c>
       <c r="H15">
-        <v>61121</v>
+        <v>12785.71</v>
       </c>
       <c r="I15">
-        <v>1438</v>
+        <v>327.37299999999999</v>
       </c>
       <c r="J15">
-        <v>9673</v>
+        <v>2191.9169999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1968,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-2</v>
+        <v>-135.30000000000001</v>
       </c>
       <c r="N15">
-        <v>4356</v>
+        <v>914.56100000000004</v>
       </c>
       <c r="O15">
-        <v>25944</v>
+        <v>5913.2709999999997</v>
       </c>
       <c r="P15">
-        <v>9673</v>
+        <v>2191.9169999999999</v>
       </c>
       <c r="Q15">
-        <v>-263</v>
+        <v>27.65</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>35177</v>
+        <v>6872.4390000000003</v>
       </c>
       <c r="U15">
-        <v>1643</v>
+        <v>61.152999999999999</v>
       </c>
       <c r="V15">
-        <v>2293</v>
+        <v>652.33199999999999</v>
       </c>
       <c r="W15">
-        <v>-79</v>
+        <v>-20.898</v>
       </c>
       <c r="X15">
-        <v>-607</v>
+        <v>-145.34</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>236</v>
+        <v>346.32499999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>505</v>
+        <v>383.52600000000001</v>
       </c>
       <c r="D16">
-        <v>3420</v>
+        <v>1240.7329999999999</v>
       </c>
       <c r="E16">
-        <v>2407</v>
+        <v>811.63300000000004</v>
       </c>
       <c r="F16">
-        <v>2845</v>
+        <v>1020.792</v>
       </c>
       <c r="G16">
-        <v>5126</v>
+        <v>1157.864</v>
       </c>
       <c r="H16">
-        <v>61171</v>
+        <v>13249.950999999999</v>
       </c>
       <c r="I16">
-        <v>1491</v>
+        <v>414.97899999999998</v>
       </c>
       <c r="J16">
-        <v>9674</v>
+        <v>2192.0700000000002</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4570</v>
+        <v>975.59900000000005</v>
       </c>
       <c r="O16">
-        <v>26279</v>
+        <v>5975.7619999999997</v>
       </c>
       <c r="P16">
-        <v>9675</v>
+        <v>2192.0700000000002</v>
       </c>
       <c r="Q16">
-        <v>-1119</v>
+        <v>36.326999999999998</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>34892</v>
+        <v>7274.1890000000003</v>
       </c>
       <c r="U16">
-        <v>524</v>
+        <v>97.48</v>
       </c>
       <c r="V16">
-        <v>2339</v>
+        <v>646.72</v>
       </c>
       <c r="W16">
-        <v>-97</v>
+        <v>-20.94</v>
       </c>
       <c r="X16">
-        <v>-916</v>
+        <v>-12.398</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>505</v>
+        <v>383.52600000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-1330</v>
+        <v>430.47500000000002</v>
       </c>
       <c r="D17">
-        <v>3107</v>
+        <v>1407.002</v>
       </c>
       <c r="E17">
-        <v>2287</v>
+        <v>783.68100000000004</v>
       </c>
       <c r="F17">
-        <v>2526</v>
+        <v>1177.7280000000001</v>
       </c>
       <c r="G17">
-        <v>4426</v>
+        <v>1587.19</v>
       </c>
       <c r="H17">
-        <v>60990</v>
+        <v>14622.715</v>
       </c>
       <c r="I17">
-        <v>1316</v>
+        <v>440.28800000000001</v>
       </c>
       <c r="J17">
-        <v>10902</v>
+        <v>2735.0320000000002</v>
       </c>
       <c r="K17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4307</v>
+        <v>1144.828</v>
       </c>
       <c r="O17">
-        <v>28004</v>
+        <v>6951.098</v>
       </c>
       <c r="P17">
-        <v>10922</v>
+        <v>2735.0320000000002</v>
       </c>
       <c r="Q17">
-        <v>-14</v>
+        <v>8.0440000000000005</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>32986</v>
+        <v>7671.6170000000002</v>
       </c>
       <c r="U17">
-        <v>510</v>
+        <v>105.524</v>
       </c>
       <c r="V17">
-        <v>1896</v>
+        <v>1021.486</v>
       </c>
       <c r="W17">
-        <v>-95</v>
+        <v>-20.986999999999998</v>
       </c>
       <c r="X17">
-        <v>540</v>
+        <v>531.46500000000003</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>-1330</v>
+        <v>430.47500000000002</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-4814</v>
+        <v>508.428</v>
       </c>
       <c r="D18">
-        <v>2587</v>
+        <v>1534.903</v>
       </c>
       <c r="E18">
-        <v>2024</v>
+        <v>939.73599999999999</v>
       </c>
       <c r="F18">
-        <v>2036</v>
+        <v>1265.3489999999999</v>
       </c>
       <c r="G18">
-        <v>6415</v>
+        <v>1348.7819999999999</v>
       </c>
       <c r="H18">
-        <v>55952</v>
+        <v>15502.48</v>
       </c>
       <c r="I18">
-        <v>1210</v>
+        <v>542.07399999999996</v>
       </c>
       <c r="J18">
-        <v>11245</v>
+        <v>2588.39</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3664</v>
+        <v>1282.8910000000001</v>
       </c>
       <c r="O18">
-        <v>27815</v>
+        <v>7298.0590000000002</v>
       </c>
       <c r="P18">
-        <v>11245</v>
+        <v>2588.39</v>
       </c>
       <c r="Q18">
-        <v>259</v>
+        <v>5.569</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>4950</v>
+        <v>2642</v>
       </c>
       <c r="T18">
-        <v>28137</v>
+        <v>8204.4210000000003</v>
       </c>
       <c r="U18">
-        <v>769</v>
+        <v>111.093</v>
       </c>
       <c r="V18">
-        <v>1933</v>
+        <v>910.98099999999999</v>
       </c>
       <c r="W18">
-        <v>-94</v>
+        <v>-27.544</v>
       </c>
       <c r="X18">
-        <v>189</v>
+        <v>-116.643</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2259,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>-4814</v>
+        <v>508.428</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-4651</v>
+        <v>560.48299999999995</v>
       </c>
       <c r="D19">
-        <v>1659</v>
+        <v>1662.288</v>
       </c>
       <c r="E19">
-        <v>1767</v>
+        <v>1116.6079999999999</v>
       </c>
       <c r="F19">
-        <v>1122</v>
+        <v>1405.337</v>
       </c>
       <c r="G19">
-        <v>5906</v>
+        <v>1589.0070000000001</v>
       </c>
       <c r="H19">
-        <v>48650</v>
+        <v>16257.067999999999</v>
       </c>
       <c r="I19">
-        <v>1010</v>
+        <v>567.57100000000003</v>
       </c>
       <c r="J19">
-        <v>9675</v>
+        <v>2531.7220000000002</v>
       </c>
       <c r="K19">
-        <v>2598</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-63.53</v>
       </c>
       <c r="N19">
-        <v>5493</v>
+        <v>1571.4469999999999</v>
       </c>
       <c r="O19">
-        <v>25245</v>
+        <v>7633.1189999999997</v>
       </c>
       <c r="P19">
-        <v>12273</v>
+        <v>2531.7220000000002</v>
       </c>
       <c r="Q19">
-        <v>-540</v>
+        <v>10.257999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>23405</v>
+        <v>8623.9490000000005</v>
       </c>
       <c r="U19">
-        <v>229</v>
+        <v>121.351</v>
       </c>
       <c r="V19">
-        <v>650</v>
+        <v>836.17200000000003</v>
       </c>
       <c r="W19">
-        <v>-94</v>
+        <v>-27.631</v>
       </c>
       <c r="X19">
-        <v>928</v>
+        <v>-68.012</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>-1334</v>
+        <v>560.48299999999995</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>2457</v>
+        <v>588.03</v>
       </c>
       <c r="D20">
-        <v>1991</v>
+        <v>1759.231</v>
       </c>
       <c r="E20">
-        <v>1589</v>
+        <v>1138.7809999999999</v>
       </c>
       <c r="F20">
-        <v>1475</v>
+        <v>1477.623</v>
       </c>
       <c r="G20">
-        <v>5493</v>
+        <v>1583.2750000000001</v>
       </c>
       <c r="H20">
-        <v>35312</v>
+        <v>16880.580000000002</v>
       </c>
       <c r="I20">
-        <v>710</v>
+        <v>595.29</v>
       </c>
       <c r="J20">
-        <v>9676</v>
+        <v>2191.6109999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2383</v>
+        <v>1819.2270000000001</v>
       </c>
       <c r="O20">
-        <v>17557</v>
+        <v>7683.9520000000002</v>
       </c>
       <c r="P20">
-        <v>9676</v>
+        <v>2478.8850000000002</v>
       </c>
       <c r="Q20">
-        <v>2811</v>
+        <v>-42.093000000000004</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>17755</v>
+        <v>9196.6280000000006</v>
       </c>
       <c r="U20">
-        <v>2950</v>
+        <v>79.257999999999996</v>
       </c>
       <c r="V20">
-        <v>1132</v>
+        <v>993.00900000000001</v>
       </c>
       <c r="W20">
-        <v>-95</v>
+        <v>-27.675999999999998</v>
       </c>
       <c r="X20">
-        <v>-2712</v>
+        <v>-56.753</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>-860</v>
+        <v>588.03</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-4143</v>
+        <v>686.995</v>
       </c>
       <c r="D21">
-        <v>1606</v>
+        <v>2061.0520000000001</v>
       </c>
       <c r="E21">
-        <v>1332</v>
+        <v>1258.3869999999999</v>
       </c>
       <c r="F21">
-        <v>1098</v>
+        <v>1757.4860000000001</v>
       </c>
       <c r="G21">
-        <v>4079</v>
+        <v>1786.605</v>
       </c>
       <c r="H21">
-        <v>27812</v>
+        <v>17853.097000000002</v>
       </c>
       <c r="I21">
-        <v>659</v>
+        <v>726.64599999999996</v>
       </c>
       <c r="J21">
-        <v>8777</v>
+        <v>2191.7849999999999</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2167</v>
+        <v>2143.2640000000001</v>
       </c>
       <c r="O21">
-        <v>15840</v>
+        <v>8140.2460000000001</v>
       </c>
       <c r="P21">
-        <v>8777</v>
+        <v>2192.0590000000002</v>
       </c>
       <c r="Q21">
-        <v>-1295</v>
+        <v>17.425999999999998</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>11972</v>
+        <v>9712.8510000000006</v>
       </c>
       <c r="U21">
-        <v>1655</v>
+        <v>96.683999999999997</v>
       </c>
       <c r="V21">
-        <v>711</v>
+        <v>1330.915</v>
       </c>
       <c r="W21">
-        <v>-94</v>
+        <v>-27.739000000000001</v>
       </c>
       <c r="X21">
-        <v>-1079</v>
+        <v>-318.70999999999998</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>-4143</v>
+        <v>686.995</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-4015</v>
+        <v>788.22199999999998</v>
       </c>
       <c r="D22">
-        <v>995</v>
+        <v>2090.6729999999998</v>
       </c>
       <c r="E22">
-        <v>1253</v>
+        <v>1444.5450000000001</v>
       </c>
       <c r="F22">
-        <v>704</v>
+        <v>1792.0630000000001</v>
       </c>
       <c r="G22">
-        <v>3752</v>
+        <v>2162.0770000000002</v>
       </c>
       <c r="H22">
-        <v>25500</v>
+        <v>19271.795999999998</v>
       </c>
       <c r="I22">
-        <v>618</v>
+        <v>714.59799999999996</v>
       </c>
       <c r="J22">
-        <v>8716</v>
+        <v>2191.9540000000002</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1841</v>
+        <v>2186.5639999999999</v>
       </c>
       <c r="O22">
-        <v>16010</v>
+        <v>8730.5810000000001</v>
       </c>
       <c r="P22">
-        <v>8717</v>
+        <v>2192.2280000000001</v>
       </c>
       <c r="Q22">
-        <v>-188</v>
+        <v>132.17599999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>3860</v>
+        <v>2806</v>
       </c>
       <c r="T22">
-        <v>9490</v>
+        <v>10541.215</v>
       </c>
       <c r="U22">
-        <v>1467</v>
+        <v>228.86</v>
       </c>
       <c r="V22">
-        <v>174</v>
+        <v>1172.174</v>
       </c>
       <c r="W22">
-        <v>-94</v>
+        <v>-34.348999999999997</v>
       </c>
       <c r="X22">
-        <v>-99</v>
+        <v>-39.186</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>-4015</v>
+        <v>788.22199999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-372</v>
+        <v>660.92100000000005</v>
       </c>
       <c r="D23">
-        <v>1084</v>
+        <v>1999.1020000000001</v>
       </c>
       <c r="E23">
-        <v>1120</v>
+        <v>1446.97</v>
       </c>
       <c r="F23">
-        <v>654</v>
+        <v>1681.384</v>
       </c>
       <c r="G23">
-        <v>3222</v>
+        <v>2357.2739999999999</v>
       </c>
       <c r="H23">
-        <v>17679</v>
+        <v>19999.102999999999</v>
       </c>
       <c r="I23">
-        <v>571</v>
+        <v>669.37099999999998</v>
       </c>
       <c r="J23">
-        <v>8718</v>
+        <v>2189.1260000000002</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,40 +2632,40 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-3.8</v>
       </c>
       <c r="N23">
-        <v>1598</v>
+        <v>2135.6239999999998</v>
       </c>
       <c r="O23">
-        <v>14125</v>
+        <v>8742.607</v>
       </c>
       <c r="P23">
-        <v>8719</v>
+        <v>2346.6999999999998</v>
       </c>
       <c r="Q23">
-        <v>-463</v>
+        <v>275.15499999999997</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3554</v>
+        <v>11256.495999999999</v>
       </c>
       <c r="U23">
-        <v>1004</v>
+        <v>504.01499999999999</v>
       </c>
       <c r="V23">
-        <v>239</v>
+        <v>1043.2840000000001</v>
       </c>
       <c r="W23">
-        <v>-95</v>
+        <v>-34.433</v>
       </c>
       <c r="X23">
-        <v>-147</v>
+        <v>118.375</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2674,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>-372</v>
+        <v>660.92100000000005</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-244</v>
+        <v>723.625</v>
       </c>
       <c r="D24">
-        <v>1365</v>
+        <v>2061.518</v>
       </c>
       <c r="E24">
-        <v>1016</v>
+        <v>1506.3219999999999</v>
       </c>
       <c r="F24">
-        <v>954</v>
+        <v>1723.307</v>
       </c>
       <c r="G24">
-        <v>3292</v>
+        <v>2103.1390000000001</v>
       </c>
       <c r="H24">
-        <v>24346</v>
+        <v>21911.355</v>
       </c>
       <c r="I24">
-        <v>544</v>
+        <v>616.86199999999997</v>
       </c>
       <c r="J24">
-        <v>8719</v>
+        <v>2189.3020000000001</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1570</v>
+        <v>3309.1660000000002</v>
       </c>
       <c r="O24">
-        <v>15650</v>
+        <v>10081.462</v>
       </c>
       <c r="P24">
-        <v>8720</v>
+        <v>3476.3020000000001</v>
       </c>
       <c r="Q24">
-        <v>197</v>
+        <v>-462.089</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>8696</v>
+        <v>11829.893</v>
       </c>
       <c r="U24">
-        <v>1201</v>
+        <v>41.926000000000002</v>
       </c>
       <c r="V24">
-        <v>744</v>
+        <v>1182.0239999999999</v>
       </c>
       <c r="W24">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-136</v>
+        <v>969.18700000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>-244</v>
+        <v>723.625</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>647.06399999999996</v>
       </c>
       <c r="D25">
-        <v>1433</v>
+        <v>2087.9360000000001</v>
       </c>
       <c r="E25">
-        <v>1064</v>
+        <v>1565.606</v>
       </c>
       <c r="F25">
-        <v>1000</v>
+        <v>1701.337</v>
       </c>
       <c r="G25">
-        <v>3272</v>
+        <v>2380.2310000000002</v>
       </c>
       <c r="H25">
-        <v>23149</v>
+        <v>23425.924999999999</v>
       </c>
       <c r="I25">
-        <v>557</v>
+        <v>627.41200000000003</v>
       </c>
       <c r="J25">
-        <v>8721</v>
+        <v>2189.4870000000001</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1628</v>
+        <v>3489.819</v>
       </c>
       <c r="O25">
-        <v>15200</v>
+        <v>10790.880999999999</v>
       </c>
       <c r="P25">
-        <v>8722</v>
+        <v>3648.404</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>118.996</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>7949</v>
+        <v>12635.044</v>
       </c>
       <c r="U25">
-        <v>1230</v>
+        <v>160.922</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1173.704</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>131.84100000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>-607</v>
+        <v>647.06399999999996</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-182</v>
+        <v>520.84100000000001</v>
       </c>
       <c r="D26">
-        <v>1356</v>
+        <v>1981.6780000000001</v>
       </c>
       <c r="E26">
-        <v>1128</v>
+        <v>1651.664</v>
       </c>
       <c r="F26">
-        <v>1001</v>
+        <v>1557.51</v>
       </c>
       <c r="G26">
-        <v>3241</v>
+        <v>2490.2710000000002</v>
       </c>
       <c r="H26">
-        <v>22519</v>
+        <v>24308.174999999999</v>
       </c>
       <c r="I26">
-        <v>585</v>
+        <v>644.88900000000001</v>
       </c>
       <c r="J26">
-        <v>8544</v>
+        <v>2019.8309999999999</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1843</v>
+        <v>3811.6120000000001</v>
       </c>
       <c r="O26">
-        <v>14840</v>
+        <v>11117.121999999999</v>
       </c>
       <c r="P26">
-        <v>8544</v>
+        <v>3821.9250000000002</v>
       </c>
       <c r="Q26">
-        <v>147</v>
+        <v>-20.398</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>3727</v>
+        <v>3150</v>
       </c>
       <c r="T26">
-        <v>7679</v>
+        <v>13191.053</v>
       </c>
       <c r="U26">
-        <v>1377</v>
+        <v>140.524</v>
       </c>
       <c r="V26">
-        <v>796</v>
+        <v>913.89400000000001</v>
       </c>
       <c r="W26">
-        <v>-95</v>
+        <v>-50.878999999999998</v>
       </c>
       <c r="X26">
-        <v>-351</v>
+        <v>154.93700000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2923,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>-182</v>
+        <v>520.84100000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>213</v>
+        <v>492.94900000000001</v>
       </c>
       <c r="D27">
-        <v>1537</v>
+        <v>2002.875</v>
       </c>
       <c r="E27">
-        <v>1171</v>
+        <v>1616.0730000000001</v>
       </c>
       <c r="F27">
-        <v>1144</v>
+        <v>1589.5050000000001</v>
       </c>
       <c r="G27">
-        <v>3426</v>
+        <v>2371.7710000000002</v>
       </c>
       <c r="H27">
-        <v>22610</v>
+        <v>26053.807000000001</v>
       </c>
       <c r="I27">
-        <v>564</v>
+        <v>636.02499999999998</v>
       </c>
       <c r="J27">
-        <v>8327</v>
+        <v>3512.18</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2964,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-70</v>
+        <v>-301.12799999999999</v>
       </c>
       <c r="N27">
-        <v>1898</v>
+        <v>3592.277</v>
       </c>
       <c r="O27">
-        <v>14787</v>
+        <v>12605.951999999999</v>
       </c>
       <c r="P27">
-        <v>8477</v>
+        <v>5013.54</v>
       </c>
       <c r="Q27">
-        <v>144</v>
+        <v>-24.056000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>7823</v>
+        <v>13447.855</v>
       </c>
       <c r="U27">
-        <v>1521</v>
+        <v>116.468</v>
       </c>
       <c r="V27">
-        <v>455</v>
+        <v>1063.559</v>
       </c>
       <c r="W27">
-        <v>-95</v>
+        <v>-51.031999999999996</v>
       </c>
       <c r="X27">
-        <v>-218</v>
+        <v>1141.579</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3006,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>213</v>
+        <v>492.94900000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>572</v>
+        <v>633.53800000000001</v>
       </c>
       <c r="D28">
-        <v>1364</v>
+        <v>2405.5439999999999</v>
       </c>
       <c r="E28">
-        <v>1015</v>
+        <v>1686.979</v>
       </c>
       <c r="F28">
-        <v>944</v>
+        <v>2031.442</v>
       </c>
       <c r="G28">
-        <v>4647</v>
+        <v>2540.6590000000001</v>
       </c>
       <c r="H28">
-        <v>22602</v>
+        <v>26931.931</v>
       </c>
       <c r="I28">
-        <v>533</v>
+        <v>607.66200000000003</v>
       </c>
       <c r="J28">
-        <v>8329</v>
+        <v>4011.1469999999999</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2873</v>
+        <v>3136.5059999999999</v>
       </c>
       <c r="O28">
-        <v>14337</v>
+        <v>12826.743</v>
       </c>
       <c r="P28">
-        <v>8479</v>
+        <v>4986.9080000000004</v>
       </c>
       <c r="Q28">
-        <v>146</v>
+        <v>72.174000000000007</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>8265</v>
+        <v>14105.188</v>
       </c>
       <c r="U28">
-        <v>1667</v>
+        <v>188.642</v>
       </c>
       <c r="V28">
-        <v>751</v>
+        <v>1386.4459999999999</v>
       </c>
       <c r="W28">
-        <v>-95</v>
+        <v>-51.12</v>
       </c>
       <c r="X28">
-        <v>-169</v>
+        <v>-49.728000000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3089,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>572</v>
+        <v>633.53800000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>63</v>
+        <v>613.34799999999996</v>
       </c>
       <c r="D29">
-        <v>1389</v>
+        <v>2467.9580000000001</v>
       </c>
       <c r="E29">
-        <v>1145</v>
+        <v>1701.23</v>
       </c>
       <c r="F29">
-        <v>992</v>
+        <v>2060.5430000000001</v>
       </c>
       <c r="G29">
-        <v>3769</v>
+        <v>2553.9920000000002</v>
       </c>
       <c r="H29">
-        <v>21835</v>
+        <v>27650.918000000001</v>
       </c>
       <c r="I29">
-        <v>583</v>
+        <v>655.476</v>
       </c>
       <c r="J29">
-        <v>7933</v>
+        <v>4011.3780000000002</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2465</v>
+        <v>2926.777</v>
       </c>
       <c r="O29">
-        <v>13458</v>
+        <v>12978.124</v>
       </c>
       <c r="P29">
-        <v>8483</v>
+        <v>4860.6639999999998</v>
       </c>
       <c r="Q29">
-        <v>275</v>
+        <v>-77.22</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>8377</v>
+        <v>14672.794</v>
       </c>
       <c r="U29">
-        <v>1846</v>
+        <v>111.422</v>
       </c>
       <c r="V29">
-        <v>554</v>
+        <v>1427.4670000000001</v>
       </c>
       <c r="W29">
-        <v>-95</v>
+        <v>-51.268999999999998</v>
       </c>
       <c r="X29">
-        <v>-185</v>
+        <v>-166.23</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>63</v>
+        <v>613.34799999999996</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>456</v>
+        <v>1072.5229999999999</v>
       </c>
       <c r="D30">
-        <v>1502</v>
+        <v>3114.375</v>
       </c>
       <c r="E30">
-        <v>1345</v>
+        <v>1936.9770000000001</v>
       </c>
       <c r="F30">
-        <v>1283</v>
+        <v>2519</v>
       </c>
       <c r="G30">
-        <v>3725</v>
+        <v>2752.2510000000002</v>
       </c>
       <c r="H30">
-        <v>21922</v>
+        <v>28634.651000000002</v>
       </c>
       <c r="I30">
-        <v>641</v>
+        <v>617.93700000000001</v>
       </c>
       <c r="J30">
-        <v>7934</v>
+        <v>4011.605</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2564</v>
+        <v>2665.0160000000001</v>
       </c>
       <c r="O30">
-        <v>13131</v>
+        <v>13256.672</v>
       </c>
       <c r="P30">
-        <v>8484</v>
+        <v>4226.6790000000001</v>
       </c>
       <c r="Q30">
-        <v>-274</v>
+        <v>14.401</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>3356</v>
+        <v>3521</v>
       </c>
       <c r="T30">
-        <v>8791</v>
+        <v>15377.978999999999</v>
       </c>
       <c r="U30">
-        <v>1668</v>
+        <v>125.82299999999999</v>
       </c>
       <c r="V30">
-        <v>668</v>
+        <v>1799.961</v>
       </c>
       <c r="W30">
-        <v>-95</v>
+        <v>-51.332000000000001</v>
       </c>
       <c r="X30">
-        <v>-149</v>
+        <v>-671.82600000000002</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,39 +3255,39 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>456</v>
+        <v>1072.5229999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>145</v>
+        <v>1021.513</v>
       </c>
       <c r="D31">
-        <v>1738</v>
+        <v>3187.741</v>
       </c>
       <c r="E31">
-        <v>1409</v>
+        <v>1972.318</v>
       </c>
       <c r="F31">
-        <v>1303</v>
+        <v>2692.127</v>
       </c>
       <c r="G31">
-        <v>3253</v>
+        <v>3053.1030000000001</v>
       </c>
       <c r="H31">
-        <v>21791</v>
+        <v>29816.075000000001</v>
       </c>
       <c r="I31">
-        <v>708</v>
+        <v>683.58100000000002</v>
       </c>
       <c r="J31">
-        <v>7936</v>
+        <v>3911.924</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3296,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-150</v>
+        <v>-87.396000000000001</v>
       </c>
       <c r="N31">
-        <v>2342</v>
+        <v>3000.482</v>
       </c>
       <c r="O31">
-        <v>12922</v>
+        <v>13736.067999999999</v>
       </c>
       <c r="P31">
-        <v>8336</v>
+        <v>4139.5119999999997</v>
       </c>
       <c r="Q31">
-        <v>-591</v>
+        <v>257.21699999999998</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>8869</v>
+        <v>16080.007</v>
       </c>
       <c r="U31">
-        <v>1077</v>
+        <v>383.04</v>
       </c>
       <c r="V31">
-        <v>615</v>
+        <v>1808.404</v>
       </c>
       <c r="W31">
-        <v>-95</v>
+        <v>-84.671999999999997</v>
       </c>
       <c r="X31">
-        <v>-316</v>
+        <v>-146.28800000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>145</v>
+        <v>1021.513</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>195</v>
+        <v>1445.229</v>
       </c>
       <c r="D32">
-        <v>1952</v>
+        <v>3534.1909999999998</v>
       </c>
       <c r="E32">
-        <v>1446</v>
+        <v>2266.357</v>
       </c>
       <c r="F32">
-        <v>1514</v>
+        <v>3413.6860000000001</v>
       </c>
       <c r="G32">
-        <v>3139</v>
+        <v>4156.3459999999995</v>
       </c>
       <c r="H32">
-        <v>21910</v>
+        <v>31877.159</v>
       </c>
       <c r="I32">
-        <v>682</v>
+        <v>894.41099999999994</v>
       </c>
       <c r="J32">
-        <v>7937</v>
+        <v>3912.136</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>33.792000000000002</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2312</v>
+        <v>4124.3029999999999</v>
       </c>
       <c r="O32">
-        <v>12915</v>
+        <v>15362.69</v>
       </c>
       <c r="P32">
-        <v>8337</v>
+        <v>4045.9279999999999</v>
       </c>
       <c r="Q32">
-        <v>-105</v>
+        <v>625.40200000000004</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>8995</v>
+        <v>16514.469000000001</v>
       </c>
       <c r="U32">
-        <v>972</v>
+        <v>1008.442</v>
       </c>
       <c r="V32">
-        <v>1113</v>
+        <v>1929.509</v>
       </c>
       <c r="W32">
-        <v>-96</v>
+        <v>-51.472999999999999</v>
       </c>
       <c r="X32">
-        <v>-194</v>
+        <v>-100.444</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>195</v>
+        <v>1445.229</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>81</v>
+        <v>1190.825</v>
       </c>
       <c r="D33">
-        <v>2005</v>
+        <v>3316.884</v>
       </c>
       <c r="E33">
-        <v>1457</v>
+        <v>1680.0309999999999</v>
       </c>
       <c r="F33">
-        <v>1531</v>
+        <v>2834.3429999999998</v>
       </c>
       <c r="G33">
-        <v>2785</v>
+        <v>4172.2920000000004</v>
       </c>
       <c r="H33">
-        <v>21870</v>
+        <v>32992.432000000001</v>
       </c>
       <c r="I33">
-        <v>744</v>
+        <v>702.14300000000003</v>
       </c>
       <c r="J33">
-        <v>8053</v>
+        <v>3917.3270000000002</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2207</v>
+        <v>2916.306</v>
       </c>
       <c r="O33">
-        <v>12924</v>
+        <v>14229.325999999999</v>
       </c>
       <c r="P33">
-        <v>8203</v>
+        <v>4057.8409999999999</v>
       </c>
       <c r="Q33">
-        <v>-379</v>
+        <v>636.16200000000003</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>8946</v>
+        <v>18763.106</v>
       </c>
       <c r="U33">
-        <v>593</v>
+        <v>1644.604</v>
       </c>
       <c r="V33">
-        <v>1006</v>
+        <v>2290.6550000000002</v>
       </c>
       <c r="W33">
-        <v>-96</v>
+        <v>-51.59</v>
       </c>
       <c r="X33">
-        <v>-459</v>
+        <v>-29.577999999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>81</v>
+        <v>1190.825</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-381</v>
+        <v>-2945.6129999999998</v>
       </c>
       <c r="D34">
-        <v>1521</v>
+        <v>2312.9340000000002</v>
       </c>
       <c r="E34">
-        <v>1194</v>
+        <v>1356.979</v>
       </c>
       <c r="F34">
-        <v>1280</v>
+        <v>1345.4780000000001</v>
       </c>
       <c r="G34">
-        <v>2687</v>
+        <v>4450.9740000000002</v>
       </c>
       <c r="H34">
-        <v>21582</v>
+        <v>29186.485000000001</v>
       </c>
       <c r="I34">
-        <v>709</v>
+        <v>548.94500000000005</v>
       </c>
       <c r="J34">
-        <v>8054</v>
+        <v>4808.9750000000004</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2201</v>
+        <v>2520.4349999999999</v>
       </c>
       <c r="O34">
-        <v>12770</v>
+        <v>12677.763999999999</v>
       </c>
       <c r="P34">
-        <v>8244</v>
+        <v>4921.5730000000003</v>
       </c>
       <c r="Q34">
-        <v>121</v>
+        <v>-463.154</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>3420</v>
+        <v>3639</v>
       </c>
       <c r="T34">
-        <v>8812</v>
+        <v>16508.721000000001</v>
       </c>
       <c r="U34">
-        <v>714</v>
+        <v>1181.45</v>
       </c>
       <c r="V34">
-        <v>1043</v>
+        <v>1036.7760000000001</v>
       </c>
       <c r="W34">
-        <v>-95</v>
+        <v>-51.622999999999998</v>
       </c>
       <c r="X34">
-        <v>182</v>
+        <v>801.57</v>
       </c>
       <c r="Y34">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-91</v>
+        <v>-791.99900000000002</v>
       </c>
       <c r="AA34">
-        <v>-381</v>
+        <v>-2945.6129999999998</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-47</v>
+        <v>-1756.94</v>
       </c>
       <c r="D35">
-        <v>1684</v>
+        <v>1616.825</v>
       </c>
       <c r="E35">
-        <v>1185</v>
+        <v>1291.0830000000001</v>
       </c>
       <c r="F35">
-        <v>1209</v>
+        <v>1202.9970000000001</v>
       </c>
       <c r="G35">
-        <v>2504</v>
+        <v>3802.596</v>
       </c>
       <c r="H35">
-        <v>21751</v>
+        <v>26292.804</v>
       </c>
       <c r="I35">
-        <v>679</v>
+        <v>388.41500000000002</v>
       </c>
       <c r="J35">
-        <v>8056</v>
+        <v>4894.3180000000002</v>
       </c>
       <c r="K35">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35">
-        <v>2374</v>
+        <v>2036.383</v>
       </c>
       <c r="O35">
-        <v>13142</v>
+        <v>11551.654</v>
       </c>
       <c r="P35">
-        <v>8820</v>
+        <v>4912.1949999999997</v>
       </c>
       <c r="Q35">
-        <v>-387</v>
+        <v>-591.75699999999995</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>8609</v>
+        <v>14741.15</v>
       </c>
       <c r="U35">
-        <v>327</v>
+        <v>589.69299999999998</v>
       </c>
       <c r="V35">
-        <v>598</v>
+        <v>543.21600000000001</v>
       </c>
       <c r="W35">
-        <v>-94</v>
+        <v>-51.633000000000003</v>
       </c>
       <c r="X35">
-        <v>-47</v>
+        <v>-53.182000000000002</v>
       </c>
       <c r="Y35">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-118</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-47</v>
+        <v>-1756.94</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>-360</v>
+        <v>444.72</v>
       </c>
       <c r="D36">
-        <v>1609</v>
+        <v>2075.3780000000002</v>
       </c>
       <c r="E36">
-        <v>1098</v>
+        <v>1536.6489999999999</v>
       </c>
       <c r="F36">
-        <v>1124</v>
+        <v>1654.626</v>
       </c>
       <c r="G36">
-        <v>2791</v>
+        <v>3485.085</v>
       </c>
       <c r="H36">
-        <v>21806</v>
+        <v>26401.927</v>
       </c>
       <c r="I36">
-        <v>644</v>
+        <v>389.34699999999998</v>
       </c>
       <c r="J36">
-        <v>8119</v>
+        <v>4954.6670000000004</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2262</v>
+        <v>1808.355</v>
       </c>
       <c r="O36">
-        <v>13037</v>
+        <v>11443.232</v>
       </c>
       <c r="P36">
-        <v>8678</v>
+        <v>4967.3230000000003</v>
       </c>
       <c r="Q36">
-        <v>222</v>
+        <v>181.864</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>8769</v>
+        <v>14958.695</v>
       </c>
       <c r="U36">
-        <v>549</v>
+        <v>771.55700000000002</v>
       </c>
       <c r="V36">
-        <v>856</v>
+        <v>823.51300000000003</v>
       </c>
       <c r="W36">
-        <v>-94</v>
+        <v>-51.698</v>
       </c>
       <c r="X36">
-        <v>260</v>
+        <v>19.350999999999999</v>
       </c>
       <c r="Y36">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-320</v>
+        <v>791.99900000000002</v>
       </c>
       <c r="AA36">
-        <v>-360</v>
+        <v>444.72</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-170</v>
+        <v>442.01600000000002</v>
       </c>
       <c r="D37">
-        <v>1502</v>
+        <v>2306.431</v>
       </c>
       <c r="E37">
-        <v>1070</v>
+        <v>1590.913</v>
       </c>
       <c r="F37">
-        <v>1063</v>
+        <v>1850.664</v>
       </c>
       <c r="G37">
-        <v>1971</v>
+        <v>4019.7020000000002</v>
       </c>
       <c r="H37">
-        <v>21405</v>
+        <v>27225.495999999999</v>
       </c>
       <c r="I37">
-        <v>661</v>
+        <v>391.9</v>
       </c>
       <c r="J37">
-        <v>8355</v>
+        <v>5010.03</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1921</v>
+        <v>1986.9490000000001</v>
       </c>
       <c r="O37">
-        <v>12900</v>
+        <v>11870.174000000001</v>
       </c>
       <c r="P37">
-        <v>8713</v>
+        <v>5049.6989999999996</v>
       </c>
       <c r="Q37">
-        <v>-386</v>
+        <v>585.80700000000002</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>8505</v>
+        <v>15355.322</v>
       </c>
       <c r="U37">
-        <v>163</v>
+        <v>1357.364</v>
       </c>
       <c r="V37">
-        <v>635</v>
+        <v>1312.742</v>
       </c>
       <c r="W37">
-        <v>-94</v>
+        <v>-51.793999999999997</v>
       </c>
       <c r="X37">
-        <v>-70</v>
+        <v>45.944000000000003</v>
       </c>
       <c r="Y37">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-570</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>-170</v>
+        <v>442.01600000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>-2976</v>
+        <v>585.20399999999995</v>
       </c>
       <c r="D38">
-        <v>1559</v>
+        <v>2517.366</v>
       </c>
       <c r="E38">
-        <v>1062</v>
+        <v>1546</v>
       </c>
       <c r="F38">
-        <v>1233</v>
+        <v>2090.7130000000002</v>
       </c>
       <c r="G38">
-        <v>1961</v>
+        <v>4586</v>
       </c>
       <c r="H38">
-        <v>18107</v>
+        <v>28186</v>
       </c>
       <c r="I38">
-        <v>695</v>
+        <v>397</v>
       </c>
       <c r="J38">
-        <v>8518</v>
+        <v>4950</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1855</v>
+        <v>2393</v>
       </c>
       <c r="O38">
-        <v>12984</v>
+        <v>12407</v>
       </c>
       <c r="P38">
-        <v>8735</v>
+        <v>5067</v>
       </c>
       <c r="Q38">
-        <v>84</v>
+        <v>691.08600000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>3163</v>
+        <v>3452</v>
       </c>
       <c r="T38">
-        <v>5123</v>
+        <v>15779</v>
       </c>
       <c r="U38">
-        <v>247</v>
+        <v>2048</v>
       </c>
       <c r="V38">
-        <v>778</v>
+        <v>1544.529</v>
       </c>
       <c r="W38">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-31</v>
+        <v>-122.113</v>
       </c>
       <c r="Y38">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-164</v>
+        <v>1E-3</v>
       </c>
       <c r="AA38">
-        <v>-2976</v>
+        <v>585.20399999999995</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-4480</v>
+        <v>705</v>
       </c>
       <c r="D39">
-        <v>1357</v>
+        <v>2641</v>
       </c>
       <c r="E39">
-        <v>838</v>
+        <v>1818.1389999999999</v>
       </c>
       <c r="F39">
-        <v>865</v>
+        <v>2193</v>
       </c>
       <c r="G39">
-        <v>1908</v>
+        <v>5038.2550000000001</v>
       </c>
       <c r="H39">
-        <v>13391</v>
+        <v>29228.161</v>
       </c>
       <c r="I39">
-        <v>528</v>
+        <v>536.61300000000006</v>
       </c>
       <c r="J39">
-        <v>8299</v>
+        <v>4950.7550000000001</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N39">
-        <v>2025</v>
+        <v>2240.7260000000001</v>
       </c>
       <c r="O39">
-        <v>13046</v>
+        <v>12469.625</v>
       </c>
       <c r="P39">
-        <v>9014</v>
+        <v>5064.3890000000001</v>
       </c>
       <c r="Q39">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>345</v>
+        <v>16758.536</v>
       </c>
       <c r="U39">
-        <v>428</v>
+        <v>2125.634</v>
       </c>
       <c r="V39">
-        <v>502</v>
+        <v>1154</v>
       </c>
       <c r="W39">
-        <v>-94</v>
+        <v>-50</v>
       </c>
       <c r="X39">
-        <v>188</v>
+        <v>-28</v>
       </c>
       <c r="Y39">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-83</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-4480</v>
+        <v>705</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-386</v>
+        <v>860</v>
       </c>
       <c r="D40">
-        <v>771</v>
+        <v>2944</v>
       </c>
       <c r="E40">
-        <v>871</v>
+        <v>1647.952</v>
       </c>
       <c r="F40">
-        <v>389</v>
+        <v>2483</v>
       </c>
       <c r="G40">
-        <v>1658</v>
+        <v>4506.9399999999996</v>
       </c>
       <c r="H40">
-        <v>12999</v>
+        <v>30432.406999999999</v>
       </c>
       <c r="I40">
-        <v>459</v>
+        <v>485.601</v>
       </c>
       <c r="J40">
-        <v>8487</v>
+        <v>4896.1270000000004</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1710</v>
+        <v>2202.835</v>
       </c>
       <c r="O40">
-        <v>12805</v>
+        <v>12756.647000000001</v>
       </c>
       <c r="P40">
-        <v>8940</v>
+        <v>5012.3320000000003</v>
       </c>
       <c r="Q40">
-        <v>-293</v>
+        <v>-321</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>194</v>
+        <v>17675.759999999998</v>
       </c>
       <c r="U40">
-        <v>135</v>
+        <v>1805.347</v>
       </c>
       <c r="V40">
-        <v>84</v>
+        <v>1931</v>
       </c>
       <c r="W40">
-        <v>-10</v>
+        <v>-51</v>
       </c>
       <c r="X40">
-        <v>31</v>
+        <v>-82</v>
       </c>
       <c r="Y40">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>-386</v>
+        <v>860</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-4</v>
+        <v>778</v>
       </c>
       <c r="D41">
-        <v>1129</v>
+        <v>2980</v>
       </c>
       <c r="E41">
-        <v>899</v>
+        <v>1756.874</v>
       </c>
       <c r="F41">
-        <v>732</v>
+        <v>2463</v>
       </c>
       <c r="G41">
-        <v>1719</v>
+        <v>4250.46</v>
       </c>
       <c r="H41">
-        <v>12875</v>
+        <v>36928.349000000002</v>
       </c>
       <c r="I41">
-        <v>395</v>
+        <v>598.03700000000003</v>
       </c>
       <c r="J41">
-        <v>8714</v>
+        <v>6380.5789999999997</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1382</v>
+        <v>2526.73</v>
       </c>
       <c r="O41">
-        <v>12733</v>
+        <v>14982.967000000001</v>
       </c>
       <c r="P41">
-        <v>9044</v>
+        <v>6515.9480000000003</v>
       </c>
       <c r="Q41">
-        <v>27</v>
+        <v>-594</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>142</v>
+        <v>21945.382000000001</v>
       </c>
       <c r="U41">
-        <v>162</v>
+        <v>1211.4390000000001</v>
       </c>
       <c r="V41">
-        <v>304</v>
+        <v>1715</v>
       </c>
       <c r="W41">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>82</v>
+        <v>4929</v>
       </c>
       <c r="Y41">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-132</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>-4</v>
+        <v>778</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>689</v>
+      </c>
+      <c r="D42">
+        <v>3424</v>
+      </c>
+      <c r="E42">
+        <v>2134</v>
+      </c>
+      <c r="F42">
+        <v>2782</v>
+      </c>
+      <c r="G42">
+        <v>3480</v>
+      </c>
+      <c r="H42">
+        <v>43425</v>
+      </c>
+      <c r="I42">
+        <v>779</v>
+      </c>
+      <c r="J42">
+        <v>8095</v>
+      </c>
+      <c r="K42">
+        <v>46</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3524</v>
+      </c>
+      <c r="O42">
+        <v>19048</v>
+      </c>
+      <c r="P42">
+        <v>8141</v>
+      </c>
+      <c r="Q42">
+        <v>-1077</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4449</v>
+      </c>
+      <c r="T42">
+        <v>24377</v>
+      </c>
+      <c r="U42">
+        <v>134</v>
+      </c>
+      <c r="V42">
+        <v>1926</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-56</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>1134</v>
+      </c>
+      <c r="D43">
+        <v>3878</v>
+      </c>
+      <c r="E43">
+        <v>2490</v>
+      </c>
+      <c r="F43">
+        <v>3226</v>
+      </c>
+      <c r="G43">
+        <v>4001</v>
+      </c>
+      <c r="H43">
+        <v>44866</v>
+      </c>
+      <c r="I43">
+        <v>906</v>
+      </c>
+      <c r="J43">
+        <v>8130</v>
+      </c>
+      <c r="K43">
+        <v>30</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3957</v>
+      </c>
+      <c r="O43">
+        <v>19668</v>
+      </c>
+      <c r="P43">
+        <v>8160</v>
+      </c>
+      <c r="Q43">
+        <v>222</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>25198</v>
+      </c>
+      <c r="U43">
+        <v>356</v>
+      </c>
+      <c r="V43">
+        <v>1979</v>
+      </c>
+      <c r="W43">
+        <v>-76</v>
+      </c>
+      <c r="X43">
+        <v>-8</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>1259</v>
+      </c>
+      <c r="D44">
+        <v>4281</v>
+      </c>
+      <c r="E44">
+        <v>2495</v>
+      </c>
+      <c r="F44">
+        <v>3603</v>
+      </c>
+      <c r="G44">
+        <v>4900</v>
+      </c>
+      <c r="H44">
+        <v>46529</v>
+      </c>
+      <c r="I44">
+        <v>1029</v>
+      </c>
+      <c r="J44">
+        <v>7404</v>
+      </c>
+      <c r="K44">
+        <v>48</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>4484</v>
+      </c>
+      <c r="O44">
+        <v>19862</v>
+      </c>
+      <c r="P44">
+        <v>7852</v>
+      </c>
+      <c r="Q44">
+        <v>751</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>26667</v>
+      </c>
+      <c r="U44">
+        <v>1107</v>
+      </c>
+      <c r="V44">
+        <v>2745</v>
+      </c>
+      <c r="W44">
+        <v>-77</v>
+      </c>
+      <c r="X44">
+        <v>-366</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>1002</v>
+      </c>
+      <c r="D45">
+        <v>4274</v>
+      </c>
+      <c r="E45">
+        <v>2560</v>
+      </c>
+      <c r="F45">
+        <v>3595</v>
+      </c>
+      <c r="G45">
+        <v>4576</v>
+      </c>
+      <c r="H45">
+        <v>47482</v>
+      </c>
+      <c r="I45">
+        <v>852</v>
+      </c>
+      <c r="J45">
+        <v>6785</v>
+      </c>
+      <c r="K45">
+        <v>17</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4024</v>
+      </c>
+      <c r="O45">
+        <v>19579</v>
+      </c>
+      <c r="P45">
+        <v>7202</v>
+      </c>
+      <c r="Q45">
+        <v>-521</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>27903</v>
+      </c>
+      <c r="U45">
+        <v>586</v>
+      </c>
+      <c r="V45">
+        <v>2447</v>
+      </c>
+      <c r="W45">
+        <v>-77</v>
+      </c>
+      <c r="X45">
+        <v>-719</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>1189</v>
+      </c>
+      <c r="D46">
+        <v>4240</v>
+      </c>
+      <c r="E46">
+        <v>3079</v>
+      </c>
+      <c r="F46">
+        <v>3559</v>
+      </c>
+      <c r="G46">
+        <v>4803</v>
+      </c>
+      <c r="H46">
+        <v>52051</v>
+      </c>
+      <c r="I46">
+        <v>1048</v>
+      </c>
+      <c r="J46">
+        <v>6785</v>
+      </c>
+      <c r="K46">
+        <v>31</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>4963</v>
+      </c>
+      <c r="O46">
+        <v>23058</v>
+      </c>
+      <c r="P46">
+        <v>7216</v>
+      </c>
+      <c r="Q46">
+        <v>-291</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>5299</v>
+      </c>
+      <c r="T46">
+        <v>28993</v>
+      </c>
+      <c r="U46">
+        <v>295</v>
+      </c>
+      <c r="V46">
+        <v>2782</v>
+      </c>
+      <c r="W46">
+        <v>-76</v>
+      </c>
+      <c r="X46">
+        <v>-54</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>797</v>
+      </c>
+      <c r="D47">
+        <v>4481</v>
+      </c>
+      <c r="E47">
+        <v>3163</v>
+      </c>
+      <c r="F47">
+        <v>3786</v>
+      </c>
+      <c r="G47">
+        <v>4954</v>
+      </c>
+      <c r="H47">
+        <v>53237</v>
+      </c>
+      <c r="I47">
+        <v>1059</v>
+      </c>
+      <c r="J47">
+        <v>7444</v>
+      </c>
+      <c r="K47">
+        <v>29</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>4698</v>
+      </c>
+      <c r="O47">
+        <v>23522</v>
+      </c>
+      <c r="P47">
+        <v>7873</v>
+      </c>
+      <c r="Q47">
+        <v>-50</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>29715</v>
+      </c>
+      <c r="U47">
+        <v>245</v>
+      </c>
+      <c r="V47">
+        <v>2007</v>
+      </c>
+      <c r="W47">
+        <v>-77</v>
+      </c>
+      <c r="X47">
+        <v>585</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-439</v>
+      </c>
+      <c r="AA47">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>356</v>
+      </c>
+      <c r="D48">
+        <v>3921</v>
+      </c>
+      <c r="E48">
+        <v>2625</v>
+      </c>
+      <c r="F48">
+        <v>3196</v>
+      </c>
+      <c r="G48">
+        <v>4639</v>
+      </c>
+      <c r="H48">
+        <v>57217</v>
+      </c>
+      <c r="I48">
+        <v>1061</v>
+      </c>
+      <c r="J48">
+        <v>9670</v>
+      </c>
+      <c r="K48">
+        <v>68</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>5121</v>
+      </c>
+      <c r="O48">
+        <v>26544</v>
+      </c>
+      <c r="P48">
+        <v>10238</v>
+      </c>
+      <c r="Q48">
+        <v>116</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>30673</v>
+      </c>
+      <c r="U48">
+        <v>361</v>
+      </c>
+      <c r="V48">
+        <v>2792</v>
+      </c>
+      <c r="W48">
+        <v>-84</v>
+      </c>
+      <c r="X48">
+        <v>2268</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>180</v>
+      </c>
+      <c r="D49">
+        <v>4123</v>
+      </c>
+      <c r="E49">
+        <v>2976</v>
+      </c>
+      <c r="F49">
+        <v>3292</v>
+      </c>
+      <c r="G49">
+        <v>5044</v>
+      </c>
+      <c r="H49">
+        <v>58810</v>
+      </c>
+      <c r="I49">
+        <v>1137</v>
+      </c>
+      <c r="J49">
+        <v>10670</v>
+      </c>
+      <c r="K49">
+        <v>64</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>5390</v>
+      </c>
+      <c r="O49">
+        <v>28096</v>
+      </c>
+      <c r="P49">
+        <v>11634</v>
+      </c>
+      <c r="Q49">
+        <v>-43</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>30714</v>
+      </c>
+      <c r="U49">
+        <v>318</v>
+      </c>
+      <c r="V49">
+        <v>1623</v>
+      </c>
+      <c r="W49">
+        <v>-85</v>
+      </c>
+      <c r="X49">
+        <v>1308</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>668</v>
+      </c>
+      <c r="D50">
+        <v>4388</v>
+      </c>
+      <c r="E50">
+        <v>3086</v>
+      </c>
+      <c r="F50">
+        <v>3588</v>
+      </c>
+      <c r="G50">
+        <v>4962</v>
+      </c>
+      <c r="H50">
+        <v>60737</v>
+      </c>
+      <c r="I50">
+        <v>1092</v>
+      </c>
+      <c r="J50">
+        <v>11355</v>
+      </c>
+      <c r="K50">
+        <v>91</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>5536</v>
+      </c>
+      <c r="O50">
+        <v>29406</v>
+      </c>
+      <c r="P50">
+        <v>12345</v>
+      </c>
+      <c r="Q50">
+        <v>-158</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>5976</v>
+      </c>
+      <c r="T50">
+        <v>31331</v>
+      </c>
+      <c r="U50">
+        <v>160</v>
+      </c>
+      <c r="V50">
+        <v>2082</v>
+      </c>
+      <c r="W50">
+        <v>-86</v>
+      </c>
+      <c r="X50">
+        <v>624</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>717</v>
+      </c>
+      <c r="D51">
+        <v>3994</v>
+      </c>
+      <c r="E51">
+        <v>3106</v>
+      </c>
+      <c r="F51">
+        <v>3251</v>
+      </c>
+      <c r="G51">
+        <v>4848</v>
+      </c>
+      <c r="H51">
+        <v>61792</v>
+      </c>
+      <c r="I51">
+        <v>1226</v>
+      </c>
+      <c r="J51">
+        <v>11485</v>
+      </c>
+      <c r="K51">
+        <v>94</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>5562</v>
+      </c>
+      <c r="O51">
+        <v>29805</v>
+      </c>
+      <c r="P51">
+        <v>12479</v>
+      </c>
+      <c r="Q51">
+        <v>88</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>31987</v>
+      </c>
+      <c r="U51">
+        <v>248</v>
+      </c>
+      <c r="V51">
+        <v>2621</v>
+      </c>
+      <c r="W51">
+        <v>-86</v>
+      </c>
+      <c r="X51">
+        <v>59</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>405</v>
+      </c>
+      <c r="AA51">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>1035</v>
+      </c>
+      <c r="D52">
+        <v>3915</v>
+      </c>
+      <c r="E52">
+        <v>2914</v>
+      </c>
+      <c r="F52">
+        <v>3119</v>
+      </c>
+      <c r="G52">
+        <v>4758</v>
+      </c>
+      <c r="H52">
+        <v>63350</v>
+      </c>
+      <c r="I52">
+        <v>1346</v>
+      </c>
+      <c r="J52">
+        <v>12297</v>
+      </c>
+      <c r="K52">
+        <v>78</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>5158</v>
+      </c>
+      <c r="O52">
+        <v>30629</v>
+      </c>
+      <c r="P52">
+        <v>12775</v>
+      </c>
+      <c r="Q52">
+        <v>-64</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>32721</v>
+      </c>
+      <c r="U52">
+        <v>184</v>
+      </c>
+      <c r="V52">
+        <v>2759</v>
+      </c>
+      <c r="W52">
+        <v>-97</v>
+      </c>
+      <c r="X52">
+        <v>-51</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>306</v>
+      </c>
+      <c r="D53">
+        <v>4217</v>
+      </c>
+      <c r="E53">
+        <v>3086</v>
+      </c>
+      <c r="F53">
+        <v>3435</v>
+      </c>
+      <c r="G53">
+        <v>6016</v>
+      </c>
+      <c r="H53">
+        <v>60239</v>
+      </c>
+      <c r="I53">
+        <v>1345</v>
+      </c>
+      <c r="J53">
+        <v>10868</v>
+      </c>
+      <c r="K53">
+        <v>57</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>4523</v>
+      </c>
+      <c r="O53">
+        <v>27258</v>
+      </c>
+      <c r="P53">
+        <v>10925</v>
+      </c>
+      <c r="Q53">
+        <v>1067</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>32981</v>
+      </c>
+      <c r="U53">
+        <v>1251</v>
+      </c>
+      <c r="V53">
+        <v>1978</v>
+      </c>
+      <c r="W53">
+        <v>-97</v>
+      </c>
+      <c r="X53">
+        <v>-1941</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-9</v>
+      </c>
+      <c r="AA53">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>174</v>
+      </c>
+      <c r="D54">
+        <v>3536</v>
+      </c>
+      <c r="E54">
+        <v>2952</v>
+      </c>
+      <c r="F54">
+        <v>2954</v>
+      </c>
+      <c r="G54">
+        <v>6366</v>
+      </c>
+      <c r="H54">
+        <v>61637</v>
+      </c>
+      <c r="I54">
+        <v>1616</v>
+      </c>
+      <c r="J54">
+        <v>9672</v>
+      </c>
+      <c r="K54">
+        <v>53</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>4700</v>
+      </c>
+      <c r="O54">
+        <v>26244</v>
+      </c>
+      <c r="P54">
+        <v>9725</v>
+      </c>
+      <c r="Q54">
+        <v>655</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>5342</v>
+      </c>
+      <c r="T54">
+        <v>35393</v>
+      </c>
+      <c r="U54">
+        <v>1906</v>
+      </c>
+      <c r="V54">
+        <v>2477</v>
+      </c>
+      <c r="W54">
+        <v>-80</v>
+      </c>
+      <c r="X54">
+        <v>960</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>236</v>
+      </c>
+      <c r="D55">
+        <v>3318</v>
+      </c>
+      <c r="E55">
+        <v>2479</v>
+      </c>
+      <c r="F55">
+        <v>2773</v>
+      </c>
+      <c r="G55">
+        <v>5463</v>
+      </c>
+      <c r="H55">
+        <v>61121</v>
+      </c>
+      <c r="I55">
+        <v>1438</v>
+      </c>
+      <c r="J55">
+        <v>9673</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-2</v>
+      </c>
+      <c r="N55">
+        <v>4356</v>
+      </c>
+      <c r="O55">
+        <v>25944</v>
+      </c>
+      <c r="P55">
+        <v>9673</v>
+      </c>
+      <c r="Q55">
+        <v>-263</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>35177</v>
+      </c>
+      <c r="U55">
+        <v>1643</v>
+      </c>
+      <c r="V55">
+        <v>2293</v>
+      </c>
+      <c r="W55">
+        <v>-79</v>
+      </c>
+      <c r="X55">
+        <v>-607</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>505</v>
+      </c>
+      <c r="D56">
+        <v>3420</v>
+      </c>
+      <c r="E56">
+        <v>2407</v>
+      </c>
+      <c r="F56">
+        <v>2845</v>
+      </c>
+      <c r="G56">
+        <v>5126</v>
+      </c>
+      <c r="H56">
+        <v>61171</v>
+      </c>
+      <c r="I56">
+        <v>1491</v>
+      </c>
+      <c r="J56">
+        <v>9674</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>4570</v>
+      </c>
+      <c r="O56">
+        <v>26279</v>
+      </c>
+      <c r="P56">
+        <v>9675</v>
+      </c>
+      <c r="Q56">
+        <v>-1119</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>34892</v>
+      </c>
+      <c r="U56">
+        <v>524</v>
+      </c>
+      <c r="V56">
+        <v>2339</v>
+      </c>
+      <c r="W56">
+        <v>-97</v>
+      </c>
+      <c r="X56">
+        <v>-916</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>-1330</v>
+      </c>
+      <c r="D57">
+        <v>3107</v>
+      </c>
+      <c r="E57">
+        <v>2287</v>
+      </c>
+      <c r="F57">
+        <v>2526</v>
+      </c>
+      <c r="G57">
+        <v>4426</v>
+      </c>
+      <c r="H57">
+        <v>60990</v>
+      </c>
+      <c r="I57">
+        <v>1316</v>
+      </c>
+      <c r="J57">
+        <v>10902</v>
+      </c>
+      <c r="K57">
+        <v>20</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>4307</v>
+      </c>
+      <c r="O57">
+        <v>28004</v>
+      </c>
+      <c r="P57">
+        <v>10922</v>
+      </c>
+      <c r="Q57">
+        <v>-14</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>32986</v>
+      </c>
+      <c r="U57">
+        <v>510</v>
+      </c>
+      <c r="V57">
+        <v>1896</v>
+      </c>
+      <c r="W57">
+        <v>-95</v>
+      </c>
+      <c r="X57">
+        <v>540</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>-1330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-4814</v>
+      </c>
+      <c r="D58">
+        <v>2587</v>
+      </c>
+      <c r="E58">
+        <v>2024</v>
+      </c>
+      <c r="F58">
+        <v>2036</v>
+      </c>
+      <c r="G58">
+        <v>6415</v>
+      </c>
+      <c r="H58">
+        <v>55952</v>
+      </c>
+      <c r="I58">
+        <v>1210</v>
+      </c>
+      <c r="J58">
+        <v>11245</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3664</v>
+      </c>
+      <c r="O58">
+        <v>27815</v>
+      </c>
+      <c r="P58">
+        <v>11245</v>
+      </c>
+      <c r="Q58">
+        <v>259</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>4950</v>
+      </c>
+      <c r="T58">
+        <v>28137</v>
+      </c>
+      <c r="U58">
+        <v>769</v>
+      </c>
+      <c r="V58">
+        <v>1933</v>
+      </c>
+      <c r="W58">
+        <v>-94</v>
+      </c>
+      <c r="X58">
+        <v>189</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>-4814</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-4651</v>
+      </c>
+      <c r="D59">
+        <v>1659</v>
+      </c>
+      <c r="E59">
+        <v>1767</v>
+      </c>
+      <c r="F59">
+        <v>1122</v>
+      </c>
+      <c r="G59">
+        <v>5906</v>
+      </c>
+      <c r="H59">
+        <v>48650</v>
+      </c>
+      <c r="I59">
+        <v>1010</v>
+      </c>
+      <c r="J59">
+        <v>9675</v>
+      </c>
+      <c r="K59">
+        <v>2598</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>5493</v>
+      </c>
+      <c r="O59">
+        <v>25245</v>
+      </c>
+      <c r="P59">
+        <v>12273</v>
+      </c>
+      <c r="Q59">
+        <v>-540</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>23405</v>
+      </c>
+      <c r="U59">
+        <v>229</v>
+      </c>
+      <c r="V59">
+        <v>650</v>
+      </c>
+      <c r="W59">
+        <v>-94</v>
+      </c>
+      <c r="X59">
+        <v>928</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>-1334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>2457</v>
+      </c>
+      <c r="D60">
+        <v>1991</v>
+      </c>
+      <c r="E60">
+        <v>1589</v>
+      </c>
+      <c r="F60">
+        <v>1475</v>
+      </c>
+      <c r="G60">
+        <v>5493</v>
+      </c>
+      <c r="H60">
+        <v>35312</v>
+      </c>
+      <c r="I60">
+        <v>710</v>
+      </c>
+      <c r="J60">
+        <v>9676</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2383</v>
+      </c>
+      <c r="O60">
+        <v>17557</v>
+      </c>
+      <c r="P60">
+        <v>9676</v>
+      </c>
+      <c r="Q60">
+        <v>2811</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>17755</v>
+      </c>
+      <c r="U60">
+        <v>2950</v>
+      </c>
+      <c r="V60">
+        <v>1132</v>
+      </c>
+      <c r="W60">
+        <v>-95</v>
+      </c>
+      <c r="X60">
+        <v>-2712</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>-860</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-4143</v>
+      </c>
+      <c r="D61">
+        <v>1606</v>
+      </c>
+      <c r="E61">
+        <v>1332</v>
+      </c>
+      <c r="F61">
+        <v>1098</v>
+      </c>
+      <c r="G61">
+        <v>4079</v>
+      </c>
+      <c r="H61">
+        <v>27812</v>
+      </c>
+      <c r="I61">
+        <v>659</v>
+      </c>
+      <c r="J61">
+        <v>8777</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2167</v>
+      </c>
+      <c r="O61">
+        <v>15840</v>
+      </c>
+      <c r="P61">
+        <v>8777</v>
+      </c>
+      <c r="Q61">
+        <v>-1295</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>11972</v>
+      </c>
+      <c r="U61">
+        <v>1655</v>
+      </c>
+      <c r="V61">
+        <v>711</v>
+      </c>
+      <c r="W61">
+        <v>-94</v>
+      </c>
+      <c r="X61">
+        <v>-1079</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>-4143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-4015</v>
+      </c>
+      <c r="D62">
+        <v>995</v>
+      </c>
+      <c r="E62">
+        <v>1253</v>
+      </c>
+      <c r="F62">
+        <v>704</v>
+      </c>
+      <c r="G62">
+        <v>3752</v>
+      </c>
+      <c r="H62">
+        <v>25500</v>
+      </c>
+      <c r="I62">
+        <v>618</v>
+      </c>
+      <c r="J62">
+        <v>8716</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1841</v>
+      </c>
+      <c r="O62">
+        <v>16010</v>
+      </c>
+      <c r="P62">
+        <v>8717</v>
+      </c>
+      <c r="Q62">
+        <v>-188</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>3860</v>
+      </c>
+      <c r="T62">
+        <v>9490</v>
+      </c>
+      <c r="U62">
+        <v>1467</v>
+      </c>
+      <c r="V62">
+        <v>174</v>
+      </c>
+      <c r="W62">
+        <v>-94</v>
+      </c>
+      <c r="X62">
+        <v>-99</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>391</v>
+      </c>
+      <c r="AA62">
+        <v>-4015</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-372</v>
+      </c>
+      <c r="D63">
+        <v>1084</v>
+      </c>
+      <c r="E63">
+        <v>1120</v>
+      </c>
+      <c r="F63">
+        <v>654</v>
+      </c>
+      <c r="G63">
+        <v>3222</v>
+      </c>
+      <c r="H63">
+        <v>17679</v>
+      </c>
+      <c r="I63">
+        <v>571</v>
+      </c>
+      <c r="J63">
+        <v>8718</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1598</v>
+      </c>
+      <c r="O63">
+        <v>14125</v>
+      </c>
+      <c r="P63">
+        <v>8719</v>
+      </c>
+      <c r="Q63">
+        <v>-463</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3554</v>
+      </c>
+      <c r="U63">
+        <v>1004</v>
+      </c>
+      <c r="V63">
+        <v>239</v>
+      </c>
+      <c r="W63">
+        <v>-95</v>
+      </c>
+      <c r="X63">
+        <v>-147</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>-244</v>
+      </c>
+      <c r="D64">
+        <v>1365</v>
+      </c>
+      <c r="E64">
+        <v>1016</v>
+      </c>
+      <c r="F64">
+        <v>954</v>
+      </c>
+      <c r="G64">
+        <v>3292</v>
+      </c>
+      <c r="H64">
+        <v>24346</v>
+      </c>
+      <c r="I64">
+        <v>544</v>
+      </c>
+      <c r="J64">
+        <v>8719</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1570</v>
+      </c>
+      <c r="O64">
+        <v>15650</v>
+      </c>
+      <c r="P64">
+        <v>8720</v>
+      </c>
+      <c r="Q64">
+        <v>197</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>8696</v>
+      </c>
+      <c r="U64">
+        <v>1201</v>
+      </c>
+      <c r="V64">
+        <v>744</v>
+      </c>
+      <c r="W64">
+        <v>-94</v>
+      </c>
+      <c r="X64">
+        <v>-136</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>-244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1433</v>
+      </c>
+      <c r="E65">
+        <v>1064</v>
+      </c>
+      <c r="F65">
+        <v>1000</v>
+      </c>
+      <c r="G65">
+        <v>3272</v>
+      </c>
+      <c r="H65">
+        <v>23149</v>
+      </c>
+      <c r="I65">
+        <v>557</v>
+      </c>
+      <c r="J65">
+        <v>8721</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1628</v>
+      </c>
+      <c r="O65">
+        <v>15200</v>
+      </c>
+      <c r="P65">
+        <v>8722</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>7949</v>
+      </c>
+      <c r="U65">
+        <v>1230</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>-607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>-182</v>
+      </c>
+      <c r="D66">
+        <v>1356</v>
+      </c>
+      <c r="E66">
+        <v>1128</v>
+      </c>
+      <c r="F66">
+        <v>1001</v>
+      </c>
+      <c r="G66">
+        <v>3241</v>
+      </c>
+      <c r="H66">
+        <v>22519</v>
+      </c>
+      <c r="I66">
+        <v>585</v>
+      </c>
+      <c r="J66">
+        <v>8544</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1843</v>
+      </c>
+      <c r="O66">
+        <v>14840</v>
+      </c>
+      <c r="P66">
+        <v>8544</v>
+      </c>
+      <c r="Q66">
+        <v>147</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>3727</v>
+      </c>
+      <c r="T66">
+        <v>7679</v>
+      </c>
+      <c r="U66">
+        <v>1377</v>
+      </c>
+      <c r="V66">
+        <v>796</v>
+      </c>
+      <c r="W66">
+        <v>-95</v>
+      </c>
+      <c r="X66">
+        <v>-351</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>-182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>213</v>
+      </c>
+      <c r="D67">
+        <v>1537</v>
+      </c>
+      <c r="E67">
+        <v>1171</v>
+      </c>
+      <c r="F67">
+        <v>1144</v>
+      </c>
+      <c r="G67">
+        <v>3426</v>
+      </c>
+      <c r="H67">
+        <v>22610</v>
+      </c>
+      <c r="I67">
+        <v>564</v>
+      </c>
+      <c r="J67">
+        <v>8327</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-70</v>
+      </c>
+      <c r="N67">
+        <v>1898</v>
+      </c>
+      <c r="O67">
+        <v>14787</v>
+      </c>
+      <c r="P67">
+        <v>8477</v>
+      </c>
+      <c r="Q67">
+        <v>144</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>7823</v>
+      </c>
+      <c r="U67">
+        <v>1521</v>
+      </c>
+      <c r="V67">
+        <v>455</v>
+      </c>
+      <c r="W67">
+        <v>-95</v>
+      </c>
+      <c r="X67">
+        <v>-218</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>572</v>
+      </c>
+      <c r="D68">
+        <v>1364</v>
+      </c>
+      <c r="E68">
+        <v>1015</v>
+      </c>
+      <c r="F68">
+        <v>944</v>
+      </c>
+      <c r="G68">
+        <v>4647</v>
+      </c>
+      <c r="H68">
+        <v>22602</v>
+      </c>
+      <c r="I68">
+        <v>533</v>
+      </c>
+      <c r="J68">
+        <v>8329</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2873</v>
+      </c>
+      <c r="O68">
+        <v>14337</v>
+      </c>
+      <c r="P68">
+        <v>8479</v>
+      </c>
+      <c r="Q68">
+        <v>146</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>8265</v>
+      </c>
+      <c r="U68">
+        <v>1667</v>
+      </c>
+      <c r="V68">
+        <v>751</v>
+      </c>
+      <c r="W68">
+        <v>-95</v>
+      </c>
+      <c r="X68">
+        <v>-169</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>63</v>
+      </c>
+      <c r="D69">
+        <v>1389</v>
+      </c>
+      <c r="E69">
+        <v>1145</v>
+      </c>
+      <c r="F69">
+        <v>992</v>
+      </c>
+      <c r="G69">
+        <v>3769</v>
+      </c>
+      <c r="H69">
+        <v>21835</v>
+      </c>
+      <c r="I69">
+        <v>583</v>
+      </c>
+      <c r="J69">
+        <v>7933</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2465</v>
+      </c>
+      <c r="O69">
+        <v>13458</v>
+      </c>
+      <c r="P69">
+        <v>8483</v>
+      </c>
+      <c r="Q69">
+        <v>275</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>8377</v>
+      </c>
+      <c r="U69">
+        <v>1846</v>
+      </c>
+      <c r="V69">
+        <v>554</v>
+      </c>
+      <c r="W69">
+        <v>-95</v>
+      </c>
+      <c r="X69">
+        <v>-185</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>456</v>
+      </c>
+      <c r="D70">
+        <v>1502</v>
+      </c>
+      <c r="E70">
+        <v>1345</v>
+      </c>
+      <c r="F70">
+        <v>1283</v>
+      </c>
+      <c r="G70">
+        <v>3725</v>
+      </c>
+      <c r="H70">
+        <v>21922</v>
+      </c>
+      <c r="I70">
+        <v>641</v>
+      </c>
+      <c r="J70">
+        <v>7934</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2564</v>
+      </c>
+      <c r="O70">
+        <v>13131</v>
+      </c>
+      <c r="P70">
+        <v>8484</v>
+      </c>
+      <c r="Q70">
+        <v>-274</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>3356</v>
+      </c>
+      <c r="T70">
+        <v>8791</v>
+      </c>
+      <c r="U70">
+        <v>1668</v>
+      </c>
+      <c r="V70">
+        <v>668</v>
+      </c>
+      <c r="W70">
+        <v>-95</v>
+      </c>
+      <c r="X70">
+        <v>-149</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>145</v>
+      </c>
+      <c r="D71">
+        <v>1738</v>
+      </c>
+      <c r="E71">
+        <v>1409</v>
+      </c>
+      <c r="F71">
+        <v>1303</v>
+      </c>
+      <c r="G71">
+        <v>3253</v>
+      </c>
+      <c r="H71">
+        <v>21791</v>
+      </c>
+      <c r="I71">
+        <v>708</v>
+      </c>
+      <c r="J71">
+        <v>7936</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-150</v>
+      </c>
+      <c r="N71">
+        <v>2342</v>
+      </c>
+      <c r="O71">
+        <v>12922</v>
+      </c>
+      <c r="P71">
+        <v>8336</v>
+      </c>
+      <c r="Q71">
+        <v>-591</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>8869</v>
+      </c>
+      <c r="U71">
+        <v>1077</v>
+      </c>
+      <c r="V71">
+        <v>615</v>
+      </c>
+      <c r="W71">
+        <v>-95</v>
+      </c>
+      <c r="X71">
+        <v>-316</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>195</v>
+      </c>
+      <c r="D72">
+        <v>1952</v>
+      </c>
+      <c r="E72">
+        <v>1446</v>
+      </c>
+      <c r="F72">
+        <v>1514</v>
+      </c>
+      <c r="G72">
+        <v>3139</v>
+      </c>
+      <c r="H72">
+        <v>21910</v>
+      </c>
+      <c r="I72">
+        <v>682</v>
+      </c>
+      <c r="J72">
+        <v>7937</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2312</v>
+      </c>
+      <c r="O72">
+        <v>12915</v>
+      </c>
+      <c r="P72">
+        <v>8337</v>
+      </c>
+      <c r="Q72">
+        <v>-105</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>8995</v>
+      </c>
+      <c r="U72">
+        <v>972</v>
+      </c>
+      <c r="V72">
+        <v>1113</v>
+      </c>
+      <c r="W72">
+        <v>-96</v>
+      </c>
+      <c r="X72">
+        <v>-194</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>81</v>
+      </c>
+      <c r="D73">
+        <v>2005</v>
+      </c>
+      <c r="E73">
+        <v>1457</v>
+      </c>
+      <c r="F73">
+        <v>1531</v>
+      </c>
+      <c r="G73">
+        <v>2785</v>
+      </c>
+      <c r="H73">
+        <v>21870</v>
+      </c>
+      <c r="I73">
+        <v>744</v>
+      </c>
+      <c r="J73">
+        <v>8053</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2207</v>
+      </c>
+      <c r="O73">
+        <v>12924</v>
+      </c>
+      <c r="P73">
+        <v>8203</v>
+      </c>
+      <c r="Q73">
+        <v>-379</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>8946</v>
+      </c>
+      <c r="U73">
+        <v>593</v>
+      </c>
+      <c r="V73">
+        <v>1006</v>
+      </c>
+      <c r="W73">
+        <v>-96</v>
+      </c>
+      <c r="X73">
+        <v>-459</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-381</v>
+      </c>
+      <c r="D74">
+        <v>1521</v>
+      </c>
+      <c r="E74">
+        <v>1194</v>
+      </c>
+      <c r="F74">
+        <v>1280</v>
+      </c>
+      <c r="G74">
+        <v>2687</v>
+      </c>
+      <c r="H74">
+        <v>21582</v>
+      </c>
+      <c r="I74">
+        <v>709</v>
+      </c>
+      <c r="J74">
+        <v>8054</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2201</v>
+      </c>
+      <c r="O74">
+        <v>12770</v>
+      </c>
+      <c r="P74">
+        <v>8244</v>
+      </c>
+      <c r="Q74">
+        <v>121</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>3420</v>
+      </c>
+      <c r="T74">
+        <v>8812</v>
+      </c>
+      <c r="U74">
+        <v>714</v>
+      </c>
+      <c r="V74">
+        <v>1043</v>
+      </c>
+      <c r="W74">
+        <v>-95</v>
+      </c>
+      <c r="X74">
+        <v>182</v>
+      </c>
+      <c r="Y74">
+        <v>39</v>
+      </c>
+      <c r="Z74">
+        <v>-91</v>
+      </c>
+      <c r="AA74">
+        <v>-381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>-47</v>
+      </c>
+      <c r="D75">
+        <v>1684</v>
+      </c>
+      <c r="E75">
+        <v>1185</v>
+      </c>
+      <c r="F75">
+        <v>1209</v>
+      </c>
+      <c r="G75">
+        <v>2504</v>
+      </c>
+      <c r="H75">
+        <v>21751</v>
+      </c>
+      <c r="I75">
+        <v>679</v>
+      </c>
+      <c r="J75">
+        <v>8056</v>
+      </c>
+      <c r="K75">
+        <v>159</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2374</v>
+      </c>
+      <c r="O75">
+        <v>13142</v>
+      </c>
+      <c r="P75">
+        <v>8820</v>
+      </c>
+      <c r="Q75">
+        <v>-387</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>8609</v>
+      </c>
+      <c r="U75">
+        <v>327</v>
+      </c>
+      <c r="V75">
+        <v>598</v>
+      </c>
+      <c r="W75">
+        <v>-94</v>
+      </c>
+      <c r="X75">
+        <v>-47</v>
+      </c>
+      <c r="Y75">
+        <v>238</v>
+      </c>
+      <c r="Z75">
+        <v>-118</v>
+      </c>
+      <c r="AA75">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>-360</v>
+      </c>
+      <c r="D76">
+        <v>1609</v>
+      </c>
+      <c r="E76">
+        <v>1098</v>
+      </c>
+      <c r="F76">
+        <v>1124</v>
+      </c>
+      <c r="G76">
+        <v>2791</v>
+      </c>
+      <c r="H76">
+        <v>21806</v>
+      </c>
+      <c r="I76">
+        <v>644</v>
+      </c>
+      <c r="J76">
+        <v>8119</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2262</v>
+      </c>
+      <c r="O76">
+        <v>13037</v>
+      </c>
+      <c r="P76">
+        <v>8678</v>
+      </c>
+      <c r="Q76">
+        <v>222</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>8769</v>
+      </c>
+      <c r="U76">
+        <v>549</v>
+      </c>
+      <c r="V76">
+        <v>856</v>
+      </c>
+      <c r="W76">
+        <v>-94</v>
+      </c>
+      <c r="X76">
+        <v>260</v>
+      </c>
+      <c r="Y76">
+        <v>212</v>
+      </c>
+      <c r="Z76">
+        <v>-320</v>
+      </c>
+      <c r="AA76">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-170</v>
+      </c>
+      <c r="D77">
+        <v>1502</v>
+      </c>
+      <c r="E77">
+        <v>1070</v>
+      </c>
+      <c r="F77">
+        <v>1063</v>
+      </c>
+      <c r="G77">
+        <v>1971</v>
+      </c>
+      <c r="H77">
+        <v>21405</v>
+      </c>
+      <c r="I77">
+        <v>661</v>
+      </c>
+      <c r="J77">
+        <v>8355</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1921</v>
+      </c>
+      <c r="O77">
+        <v>12900</v>
+      </c>
+      <c r="P77">
+        <v>8713</v>
+      </c>
+      <c r="Q77">
+        <v>-386</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>8505</v>
+      </c>
+      <c r="U77">
+        <v>163</v>
+      </c>
+      <c r="V77">
+        <v>635</v>
+      </c>
+      <c r="W77">
+        <v>-94</v>
+      </c>
+      <c r="X77">
+        <v>-70</v>
+      </c>
+      <c r="Y77">
+        <v>190</v>
+      </c>
+      <c r="Z77">
+        <v>-570</v>
+      </c>
+      <c r="AA77">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>-2976</v>
+      </c>
+      <c r="D78">
+        <v>1559</v>
+      </c>
+      <c r="E78">
+        <v>1062</v>
+      </c>
+      <c r="F78">
+        <v>1233</v>
+      </c>
+      <c r="G78">
+        <v>1961</v>
+      </c>
+      <c r="H78">
+        <v>18107</v>
+      </c>
+      <c r="I78">
+        <v>695</v>
+      </c>
+      <c r="J78">
+        <v>8518</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1855</v>
+      </c>
+      <c r="O78">
+        <v>12984</v>
+      </c>
+      <c r="P78">
+        <v>8735</v>
+      </c>
+      <c r="Q78">
+        <v>84</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>3163</v>
+      </c>
+      <c r="T78">
+        <v>5123</v>
+      </c>
+      <c r="U78">
+        <v>247</v>
+      </c>
+      <c r="V78">
+        <v>778</v>
+      </c>
+      <c r="W78">
+        <v>-94</v>
+      </c>
+      <c r="X78">
+        <v>-31</v>
+      </c>
+      <c r="Y78">
+        <v>37</v>
+      </c>
+      <c r="Z78">
+        <v>-164</v>
+      </c>
+      <c r="AA78">
+        <v>-2976</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-4480</v>
+      </c>
+      <c r="D79">
+        <v>1357</v>
+      </c>
+      <c r="E79">
+        <v>838</v>
+      </c>
+      <c r="F79">
+        <v>865</v>
+      </c>
+      <c r="G79">
+        <v>1908</v>
+      </c>
+      <c r="H79">
+        <v>13391</v>
+      </c>
+      <c r="I79">
+        <v>528</v>
+      </c>
+      <c r="J79">
+        <v>8299</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2025</v>
+      </c>
+      <c r="O79">
+        <v>13046</v>
+      </c>
+      <c r="P79">
+        <v>9014</v>
+      </c>
+      <c r="Q79">
+        <v>181</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>345</v>
+      </c>
+      <c r="U79">
+        <v>428</v>
+      </c>
+      <c r="V79">
+        <v>502</v>
+      </c>
+      <c r="W79">
+        <v>-94</v>
+      </c>
+      <c r="X79">
+        <v>188</v>
+      </c>
+      <c r="Y79">
+        <v>37</v>
+      </c>
+      <c r="Z79">
+        <v>-83</v>
+      </c>
+      <c r="AA79">
+        <v>-4480</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-386</v>
+      </c>
+      <c r="D80">
+        <v>771</v>
+      </c>
+      <c r="E80">
+        <v>871</v>
+      </c>
+      <c r="F80">
+        <v>389</v>
+      </c>
+      <c r="G80">
+        <v>1658</v>
+      </c>
+      <c r="H80">
+        <v>12999</v>
+      </c>
+      <c r="I80">
+        <v>459</v>
+      </c>
+      <c r="J80">
+        <v>8487</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1710</v>
+      </c>
+      <c r="O80">
+        <v>12805</v>
+      </c>
+      <c r="P80">
+        <v>8940</v>
+      </c>
+      <c r="Q80">
+        <v>-293</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>194</v>
+      </c>
+      <c r="U80">
+        <v>135</v>
+      </c>
+      <c r="V80">
+        <v>84</v>
+      </c>
+      <c r="W80">
+        <v>-10</v>
+      </c>
+      <c r="X80">
+        <v>31</v>
+      </c>
+      <c r="Y80">
+        <v>36</v>
+      </c>
+      <c r="Z80">
+        <v>-71</v>
+      </c>
+      <c r="AA80">
+        <v>-386</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-4</v>
+      </c>
+      <c r="D81">
+        <v>1129</v>
+      </c>
+      <c r="E81">
+        <v>899</v>
+      </c>
+      <c r="F81">
+        <v>732</v>
+      </c>
+      <c r="G81">
+        <v>1719</v>
+      </c>
+      <c r="H81">
+        <v>12875</v>
+      </c>
+      <c r="I81">
+        <v>395</v>
+      </c>
+      <c r="J81">
+        <v>8714</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1382</v>
+      </c>
+      <c r="O81">
+        <v>12733</v>
+      </c>
+      <c r="P81">
+        <v>9044</v>
+      </c>
+      <c r="Q81">
+        <v>27</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>142</v>
+      </c>
+      <c r="U81">
+        <v>162</v>
+      </c>
+      <c r="V81">
+        <v>304</v>
+      </c>
+      <c r="W81">
+        <v>-9</v>
+      </c>
+      <c r="X81">
+        <v>82</v>
+      </c>
+      <c r="Y81">
+        <v>36</v>
+      </c>
+      <c r="Z81">
+        <v>-132</v>
+      </c>
+      <c r="AA81">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>10</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1136</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>908</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>728</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1846</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>12746</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>444</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>8734</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1308</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>12591</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>9033</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>100</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>2272</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>155</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>262</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>498</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-10</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-208</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>181</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-41</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>10</v>
       </c>
     </row>
